--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -427,13 +427,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.16141770108525</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-251.733916226558</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-370.294772519583</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>196.199661462423</v>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.1614177010853</v>
+        <v>-3</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.1167940462117</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-259.908501779053</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-378.553841151306</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>279.522876952698</v>
+        <v>301.854532389997</v>
       </c>
       <c r="F3" t="n">
-        <v>393.137287588144</v>
+        <v>419.924831566957</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-11.1167940462117</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>-11.8455691481658</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-299.048349080382</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-441.37685141963</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>320.170092991899</v>
+        <v>375.833516879632</v>
       </c>
       <c r="F4" t="n">
-        <v>482.841636122523</v>
+        <v>603.894021249784</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>-14.8455691481658</v>
+        <v>-3</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>-15.6671079829222</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-333.551483989765</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-497.01320992861</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>697.38576914971</v>
+        <v>912.538157719481</v>
       </c>
       <c r="F5" t="n">
-        <v>1492.18219262919</v>
+        <v>1741.02449172048</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>-19.6671079829222</v>
+        <v>-4</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>-20.9398087143799</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-367.154949765654</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-549.314410446889</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1066.90846981479</v>
+        <v>1025.42370084218</v>
       </c>
       <c r="F6" t="n">
-        <v>1777.20656239459</v>
+        <v>1836.58115950853</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-20.9398087143799</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.350486558076422</v>
+        <v>2.27490403594758</v>
       </c>
       <c r="C7" t="n">
-        <v>-366.659763823604</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-565.768785177361</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>657.327469719394</v>
+        <v>669.757941298632</v>
       </c>
       <c r="F7" t="n">
-        <v>1561.10400681954</v>
+        <v>1606.04326010035</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-6.35048655807642</v>
+        <v>-3.72509596405242</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>129.334701660026</v>
+        <v>133.137857153471</v>
       </c>
       <c r="C8" t="n">
-        <v>-218.175726029889</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-432.900516525127</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>786.607137760507</v>
+        <v>807.156764103022</v>
       </c>
       <c r="F8" t="n">
-        <v>1727.73977641299</v>
+        <v>1831.58777667852</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>60.3347016600258</v>
+        <v>64.1378571534714</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>348.239446532332</v>
+        <v>347.439628375211</v>
       </c>
       <c r="C9" t="n">
-        <v>-60.3629136487629</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-163.924346857279</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1146.42741636018</v>
+        <v>1275.2663455185</v>
       </c>
       <c r="F9" t="n">
-        <v>1840.12066779965</v>
+        <v>1958.61825987765</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>279.239446532332</v>
+        <v>278.439628375211</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>219.735369188904</v>
+        <v>214.843362694397</v>
       </c>
       <c r="C10" t="n">
-        <v>-152.97649288796</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-395.940280705752</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1058.77570653771</v>
+        <v>1149.11480149013</v>
       </c>
       <c r="F10" t="n">
-        <v>1774.13662775547</v>
+        <v>1860.75132082138</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>82.7353691889035</v>
+        <v>77.8433626943974</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>67.1564157893503</v>
+        <v>54.7055445309462</v>
       </c>
       <c r="C11" t="n">
-        <v>-388.724188539699</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-644.641627295914</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>702.707330651648</v>
+        <v>932.242852854993</v>
       </c>
       <c r="F11" t="n">
-        <v>1656.25306653522</v>
+        <v>1801.26927405641</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>25.1564157893503</v>
+        <v>12.7055445309462</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2.37131688109905</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-492.675589597624</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-760.921873315244</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>520.782994662582</v>
+        <v>560.774280778923</v>
       </c>
       <c r="F12" t="n">
-        <v>1401.43130555671</v>
+        <v>1647.16146184524</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>-7.62868311890095</v>
+        <v>-10</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>-9.24121725133233</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-517.714239344738</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-797.747098125786</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>540.275085515153</v>
       </c>
       <c r="F13" t="n">
-        <v>1284.08694829901</v>
+        <v>1540.78438975277</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>-17.2412172513323</v>
+        <v>-8</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>-23.5842809334176</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-575.609959559516</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-866.952945172451</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>725.84602208409</v>
+        <v>798.455156862772</v>
       </c>
       <c r="F14" t="n">
-        <v>1502.86288145866</v>
+        <v>1666.22239378972</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>-27.5842809334176</v>
+        <v>-4</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.16106732785492</v>
+        <v>18.9758392557095</v>
       </c>
       <c r="C15" t="n">
-        <v>-603.72765008942</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-905.957808304366</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1078.28908328673</v>
+        <v>1212.6791247591</v>
       </c>
       <c r="F15" t="n">
-        <v>1763.84835883753</v>
+        <v>1920.19064498352</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-3.16106732785492</v>
+        <v>18.9758392557095</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>29.0801549376903</v>
+        <v>37.8201524131256</v>
       </c>
       <c r="C16" t="n">
-        <v>-620.960595377804</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-933.699147212086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1148.05690687474</v>
+        <v>1245.62803180848</v>
       </c>
       <c r="F16" t="n">
-        <v>1763.01214911603</v>
+        <v>1950.84400108467</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.0801549376903</v>
+        <v>37.8201524131256</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4350649857723</v>
+        <v>15.8712868367328</v>
       </c>
       <c r="C17" t="n">
-        <v>-634.747279296832</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-957.65242802038</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1207.94286759002</v>
+        <v>1315.11959413657</v>
       </c>
       <c r="F17" t="n">
-        <v>1860.20606630792</v>
+        <v>2147.51736777272</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19.4350649857723</v>
+        <v>15.8712868367328</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>-10.6007149562787</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-651.648555349698</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-984.409833657359</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1305.99939456383</v>
+        <v>1308.53758100537</v>
       </c>
       <c r="F18" t="n">
-        <v>2138.60334783423</v>
+        <v>2279.02921577672</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>-12.6007149562787</v>
+        <v>-2</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>-12.063242821845</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-637.217731003865</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-979.551488628967</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1113.63993971951</v>
+        <v>1091.16118447425</v>
       </c>
       <c r="F19" t="n">
-        <v>1902.00181355701</v>
+        <v>2053.71020012471</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.063242821845</v>
+        <v>-10</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>101.157753518256</v>
+        <v>105.827423477866</v>
       </c>
       <c r="C20" t="n">
-        <v>-476.82557915844</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-828.471331128365</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>969.366301819304</v>
+        <v>1131.36695928669</v>
       </c>
       <c r="F20" t="n">
-        <v>1925.49265270596</v>
+        <v>2057.05111411737</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>84.1577535182556</v>
+        <v>88.8274234778661</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>323.001435860281</v>
+        <v>331.981755996569</v>
       </c>
       <c r="C21" t="n">
-        <v>-175.266609774388</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-535.98404509914</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1389.73832673295</v>
+        <v>1523.52713045473</v>
       </c>
       <c r="F21" t="n">
-        <v>2065.75701359338</v>
+        <v>2251.42374312516</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>251.001435860281</v>
+        <v>259.981755996569</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>247.67113081686</v>
+        <v>261.06106380923</v>
       </c>
       <c r="C22" t="n">
-        <v>-392.13471805324</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-761.701222780115</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1347.16191006846</v>
+        <v>1571.92237147563</v>
       </c>
       <c r="F22" t="n">
-        <v>2153.77546511517</v>
+        <v>2303.02972866732</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>184.67113081686</v>
+        <v>198.06106380923</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>111.849812631773</v>
+        <v>104.805693348854</v>
       </c>
       <c r="C23" t="n">
-        <v>-619.737665130875</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-997.946251343314</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1455.55124951456</v>
+        <v>1572.70764681351</v>
       </c>
       <c r="F23" t="n">
-        <v>2095.810953591</v>
+        <v>2240.39495456911</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>72.8498126317727</v>
+        <v>65.8056933488541</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>31.2057594685688</v>
+        <v>22.3762595066555</v>
       </c>
       <c r="C24" t="n">
-        <v>-716.359813239942</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-1103.01737226806</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>915.207224997839</v>
+        <v>1229.66685835369</v>
       </c>
       <c r="F24" t="n">
-        <v>1785.0209074925</v>
+        <v>2022.29676777395</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>17.2057594685688</v>
+        <v>8.37625950665545</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>-3.84370967572296</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-734.75220448528</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1129.67802185147</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>865.836238005125</v>
+        <v>996.001736900246</v>
       </c>
       <c r="F25" t="n">
-        <v>1866.79136267964</v>
+        <v>2016.5681047224</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.84370967572296</v>
+        <v>-4</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>-35.4513260641778</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-786.581331479038</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1189.60581521561</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>864.222444861315</v>
+        <v>1050.30991474912</v>
       </c>
       <c r="F26" t="n">
-        <v>1907.00085588132</v>
+        <v>2091.82578756279</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>-44.4513260641778</v>
+        <v>-9</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>-29.5468786516662</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-809.129981682501</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-1220.09356615186</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1337.66466593853</v>
+        <v>1497.40701727534</v>
       </c>
       <c r="F27" t="n">
-        <v>1989.29589284381</v>
+        <v>2228.12731753371</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-30.5468786516662</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>20.7889781187801</v>
+        <v>32.078744337512</v>
       </c>
       <c r="C28" t="n">
-        <v>-821.225134893024</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1239.97733014539</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1521.2925018568</v>
+        <v>1659.32074539957</v>
       </c>
       <c r="F28" t="n">
-        <v>2072.53133816735</v>
+        <v>2285.92794866196</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>18.7889781187801</v>
+        <v>30.078744337512</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>70.4509409192753</v>
+        <v>59.2920923050526</v>
       </c>
       <c r="C29" t="n">
-        <v>-830.250992125042</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-1256.64955485415</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1272.8734574097</v>
+        <v>1464.77928005146</v>
       </c>
       <c r="F29" t="n">
-        <v>2060.10226444183</v>
+        <v>2249.08396588482</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>70.4509409192753</v>
+        <v>59.2920923050526</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>30.6986015246836</v>
+        <v>19.6609362577498</v>
       </c>
       <c r="C30" t="n">
-        <v>-842.723429621511</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1276.63363642267</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1396.1479198052</v>
+        <v>1490.60573621926</v>
       </c>
       <c r="F30" t="n">
-        <v>2173.46861898256</v>
+        <v>2266.46549722351</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>30.6986015246836</v>
+        <v>19.6609362577498</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6.12105890156156</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-824.158092475426</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1265.45209972569</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1170.03070029496</v>
+        <v>1173.50844623369</v>
       </c>
       <c r="F31" t="n">
-        <v>2160.87588896871</v>
+        <v>2310.02296000081</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.878941098438442</v>
+        <v>-7</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>98.6868897059458</v>
+        <v>96.0203359218199</v>
       </c>
       <c r="C32" t="n">
-        <v>-659.893919685009</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1108.45019720631</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1187.29073772561</v>
+        <v>1377.4195014515</v>
       </c>
       <c r="F32" t="n">
-        <v>2011.5022426986</v>
+        <v>2185.51775185136</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>85.6868897059458</v>
+        <v>83.0203359218199</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>292.878263374543</v>
+        <v>295.546381358129</v>
       </c>
       <c r="C33" t="n">
-        <v>-354.698287576068</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-810.401115494151</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1470.05472801759</v>
+        <v>1606.82056409559</v>
       </c>
       <c r="F33" t="n">
-        <v>2132.06657163949</v>
+        <v>2363.87898422248</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>235.878263374543</v>
+        <v>238.546381358129</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>200.998274566108</v>
+        <v>218.345953966965</v>
       </c>
       <c r="C34" t="n">
-        <v>-568.141789099631</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1030.88080911125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1404.51409000956</v>
+        <v>1669.70332060847</v>
       </c>
       <c r="F34" t="n">
-        <v>2208.85179480876</v>
+        <v>2381.6413249135</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>147.998274566108</v>
+        <v>165.345953966965</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>136.41895397394</v>
+        <v>165.921326076981</v>
       </c>
       <c r="C35" t="n">
-        <v>-792.512036595472</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-1262.18185030515</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1407.12326714791</v>
+        <v>1732.12573430316</v>
       </c>
       <c r="F35" t="n">
-        <v>2195.26864110614</v>
+        <v>2441.65125473478</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>109.41895397394</v>
+        <v>138.921326076981</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>71.7772002942137</v>
+        <v>67.4428553637665</v>
       </c>
       <c r="C36" t="n">
-        <v>-886.075861776672</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-1362.57566993913</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1173.46924098737</v>
+        <v>1519.49712505248</v>
       </c>
       <c r="F36" t="n">
-        <v>2000.24421088146</v>
+        <v>2311.68125684386</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>70.7772002942137</v>
+        <v>66.4428553637665</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>23.8098196160569</v>
+        <v>7.72231601203026</v>
       </c>
       <c r="C37" t="n">
-        <v>-901.568967515498</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1384.80224497849</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1093.5718070541</v>
+        <v>1305.08345803621</v>
       </c>
       <c r="F37" t="n">
-        <v>2108.93263544485</v>
+        <v>2329.98242721611</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>20.8098196160569</v>
+        <v>4.72231601203026</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>-28.5655377380899</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-950.644354503445</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1440.51855643329</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1000.88396196007</v>
+        <v>1085.1859802989</v>
       </c>
       <c r="F38" t="n">
-        <v>2006.24163174724</v>
+        <v>2145.28296125</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>-32.5655377380899</v>
+        <v>-4</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>-44.4837009214115</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-970.572886038202</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-1466.99918166039</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1443.52719495437</v>
+        <v>1656.02396542521</v>
       </c>
       <c r="F39" t="n">
-        <v>2190.32420719164</v>
+        <v>2470.50472314236</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-45.4837009214115</v>
+        <v>-1</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>-24.3078819903367</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-980.170956464512</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1483.06398709224</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1557.12778530407</v>
+        <v>1753.17965979938</v>
       </c>
       <c r="F40" t="n">
-        <v>2247.10749024702</v>
+        <v>2443.65269484333</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>-27.3078819903367</v>
+        <v>-3</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>46.6442287806976</v>
+        <v>59.4483591824141</v>
       </c>
       <c r="C41" t="n">
-        <v>-986.813330987217</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-1496.09098956132</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1494.62583345147</v>
+        <v>1796.39190918947</v>
       </c>
       <c r="F41" t="n">
-        <v>2262.91337917616</v>
+        <v>2403.21459268787</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>45.6442287806976</v>
+        <v>58.4483591824141</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>82.889530258269</v>
+        <v>58.9528336305729</v>
       </c>
       <c r="C42" t="n">
-        <v>-997.007442535011</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-1512.5906722773</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1452.53799001417</v>
+        <v>1659.68639852782</v>
       </c>
       <c r="F42" t="n">
-        <v>2107.93176311724</v>
+        <v>2293.68106630861</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>82.889530258269</v>
+        <v>58.9528336305729</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>44.7717506919216</v>
+        <v>29.9598245121175</v>
       </c>
       <c r="C43" t="n">
-        <v>-976.261353927265</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1498.07396402812</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1561.3640152455</v>
+        <v>1611.67938885575</v>
       </c>
       <c r="F43" t="n">
-        <v>2253.84527537055</v>
+        <v>2414.16204614369</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>41.7717506919216</v>
+        <v>26.9598245121175</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>109.674240817478</v>
+        <v>104.048482774254</v>
       </c>
       <c r="C44" t="n">
-        <v>-809.907172310518</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-1337.87566884136</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1184.80528973202</v>
+        <v>1259.18699077778</v>
       </c>
       <c r="F44" t="n">
-        <v>2104.16597746535</v>
+        <v>2325.06949699255</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>76.6742408174783</v>
+        <v>71.0484827742544</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>286.370059947313</v>
+        <v>284.367439384093</v>
       </c>
       <c r="C45" t="n">
-        <v>-502.706098977418</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-1036.75952944838</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>1514.99579073141</v>
       </c>
       <c r="F45" t="n">
-        <v>2138.40714773349</v>
+        <v>2396.52904742175</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>206.370059947313</v>
+        <v>204.367439384093</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>163.201128842504</v>
+        <v>166.432802313568</v>
       </c>
       <c r="C46" t="n">
-        <v>-714.223129046681</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1254.2929392255</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1498.4046458466</v>
+        <v>1644.01475548863</v>
       </c>
       <c r="F46" t="n">
-        <v>2136.15028525607</v>
+        <v>2347.51027148975</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>101.201128842504</v>
+        <v>104.432802313568</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>83.8785819304568</v>
+        <v>107.632605345926</v>
       </c>
       <c r="C47" t="n">
-        <v>-936.740786174686</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-1482.76068795058</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1450.80367526114</v>
+        <v>1620.33249524544</v>
       </c>
       <c r="F47" t="n">
-        <v>2137.06999685001</v>
+        <v>2423.139322149</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>51.8785819304568</v>
+        <v>75.6326053459262</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>108.099093121257</v>
+        <v>142.100106516793</v>
       </c>
       <c r="C48" t="n">
-        <v>-1028.5212641072</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-1580.427113328</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1386.71325766163</v>
+        <v>1730.59992210659</v>
       </c>
       <c r="F48" t="n">
-        <v>2189.19470396823</v>
+        <v>2445.86677091332</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>96.0990931212575</v>
+        <v>130.100106516793</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>57.7828215861659</v>
+        <v>57.1450464815139</v>
       </c>
       <c r="C49" t="n">
-        <v>-1042.29602807552</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-1600.02571141047</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1365.01815968122</v>
+        <v>1636.96098409089</v>
       </c>
       <c r="F49" t="n">
-        <v>2155.61694407764</v>
+        <v>2387.73542174871</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>53.7828215861659</v>
+        <v>53.1450464815139</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.854532389997</v>
+        <v>272.279923767045</v>
       </c>
       <c r="F3" t="n">
-        <v>419.924831566957</v>
+        <v>376.139268956894</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>375.833516879632</v>
+        <v>338.419389486532</v>
       </c>
       <c r="F4" t="n">
-        <v>603.894021249784</v>
+        <v>594.582242952781</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>912.538157719481</v>
+        <v>809.177138029519</v>
       </c>
       <c r="F5" t="n">
-        <v>1741.02449172048</v>
+        <v>1773.29082615962</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1025.42370084218</v>
+        <v>958.228866907608</v>
       </c>
       <c r="F6" t="n">
-        <v>1836.58115950853</v>
+        <v>1836.71051527942</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2.27490403594758</v>
+        <v>4.35266208834269</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>669.757941298632</v>
+        <v>708.332797798918</v>
       </c>
       <c r="F7" t="n">
-        <v>1606.04326010035</v>
+        <v>1688.32782491095</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.72509596405242</v>
+        <v>-1.64733791165731</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>133.137857153471</v>
+        <v>134.332626104082</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>807.156764103022</v>
+        <v>910.688753799615</v>
       </c>
       <c r="F8" t="n">
-        <v>1831.58777667852</v>
+        <v>1932.11887577842</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>64.1378571534714</v>
+        <v>65.332626104082</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>347.439628375211</v>
+        <v>343.357194826915</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1275.2663455185</v>
+        <v>1180.19602482982</v>
       </c>
       <c r="F9" t="n">
-        <v>1958.61825987765</v>
+        <v>2094.14024395584</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>278.439628375211</v>
+        <v>274.357194826915</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>214.843362694397</v>
+        <v>204.319548580356</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1149.11480149013</v>
+        <v>1054.47438632673</v>
       </c>
       <c r="F10" t="n">
-        <v>1860.75132082138</v>
+        <v>1997.9092242857</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>77.8433626943974</v>
+        <v>67.3195485803562</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>54.7055445309462</v>
+        <v>47.2539700323799</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>932.242852854993</v>
+        <v>752.558107320874</v>
       </c>
       <c r="F11" t="n">
-        <v>1801.26927405641</v>
+        <v>1806.74993186705</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>12.7055445309462</v>
+        <v>5.25397003237985</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>560.774280778923</v>
+        <v>529.35192150308</v>
       </c>
       <c r="F12" t="n">
-        <v>1647.16146184524</v>
+        <v>1590.79294421306</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -791,7 +791,7 @@
         <v>540.275085515153</v>
       </c>
       <c r="F13" t="n">
-        <v>1540.78438975277</v>
+        <v>1516.33198772952</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>798.455156862772</v>
+        <v>750.01497554733</v>
       </c>
       <c r="F14" t="n">
-        <v>1666.22239378972</v>
+        <v>1710.16154334685</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9758392557095</v>
+        <v>15.7977731064104</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1212.6791247591</v>
+        <v>1181.87851704323</v>
       </c>
       <c r="F15" t="n">
-        <v>1920.19064498352</v>
+        <v>1931.03679022431</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.9758392557095</v>
+        <v>15.7977731064104</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>37.8201524131256</v>
+        <v>16.5384715139995</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1245.62803180848</v>
+        <v>1332.82038271736</v>
       </c>
       <c r="F16" t="n">
-        <v>1950.84400108467</v>
+        <v>1961.85593652343</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8201524131256</v>
+        <v>16.5384715139995</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8712868367328</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.11959413657</v>
+        <v>1340.98504526097</v>
       </c>
       <c r="F17" t="n">
-        <v>2147.51736777272</v>
+        <v>2192.58104204746</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>15.8712868367328</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1308.53758100537</v>
+        <v>1304.93752568308</v>
       </c>
       <c r="F18" t="n">
-        <v>2279.02921577672</v>
+        <v>2482.81380371492</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1091.16118447425</v>
+        <v>1136.66054678825</v>
       </c>
       <c r="F19" t="n">
-        <v>2053.71020012471</v>
+        <v>2123.58898430062</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>105.827423477866</v>
+        <v>120.215168978794</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1131.36695928669</v>
+        <v>1167.39135659596</v>
       </c>
       <c r="F20" t="n">
-        <v>2057.05111411737</v>
+        <v>2235.25377251154</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>88.8274234778661</v>
+        <v>103.215168978794</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>331.981755996569</v>
+        <v>356.119712194118</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1523.52713045473</v>
+        <v>1635.33754000482</v>
       </c>
       <c r="F21" t="n">
-        <v>2251.42374312516</v>
+        <v>2479.88131981096</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>259.981755996569</v>
+        <v>284.119712194118</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>261.06106380923</v>
+        <v>243.050429060495</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1571.92237147563</v>
+        <v>1600.0083812537</v>
       </c>
       <c r="F22" t="n">
-        <v>2303.02972866732</v>
+        <v>2504.185736382</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>198.06106380923</v>
+        <v>180.050429060495</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>104.805693348854</v>
+        <v>75.401347394458</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1572.70764681351</v>
+        <v>1611.45079047532</v>
       </c>
       <c r="F23" t="n">
-        <v>2240.39495456911</v>
+        <v>2411.25526239101</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>65.8056933488541</v>
+        <v>36.401347394458</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>22.3762595066555</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1229.66685835369</v>
+        <v>1136.64092569656</v>
       </c>
       <c r="F24" t="n">
-        <v>2022.29676777395</v>
+        <v>1981.17024201667</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>8.37625950665545</v>
+        <v>-14</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>996.001736900246</v>
+        <v>982.027637490357</v>
       </c>
       <c r="F25" t="n">
-        <v>2016.5681047224</v>
+        <v>2052.63198601384</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1050.30991474912</v>
+        <v>1055.4067162723</v>
       </c>
       <c r="F26" t="n">
-        <v>2091.82578756279</v>
+        <v>2191.07727569148</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>10.720985649363</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1497.40701727534</v>
+        <v>1636.91771744021</v>
       </c>
       <c r="F27" t="n">
-        <v>2228.12731753371</v>
+        <v>2376.39788332858</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-1</v>
+        <v>9.72098564936296</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>32.078744337512</v>
+        <v>68.1688554698061</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1659.32074539957</v>
+        <v>1777.00598447955</v>
       </c>
       <c r="F28" t="n">
-        <v>2285.92794866196</v>
+        <v>2462.66599855949</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>30.078744337512</v>
+        <v>66.1688554698061</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>59.2920923050526</v>
+        <v>35.7211122581728</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1464.77928005146</v>
+        <v>1561.81972320947</v>
       </c>
       <c r="F29" t="n">
-        <v>2249.08396588482</v>
+        <v>2437.27750858359</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>59.2920923050526</v>
+        <v>35.7211122581728</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>19.6609362577498</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1490.60573621926</v>
+        <v>1595.11801281309</v>
       </c>
       <c r="F30" t="n">
-        <v>2266.46549722351</v>
+        <v>2594.19523974546</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.6609362577498</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1173.50844623369</v>
+        <v>1286.27656860569</v>
       </c>
       <c r="F31" t="n">
-        <v>2310.02296000081</v>
+        <v>2452.63300683367</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>96.0203359218199</v>
+        <v>98.0363820878814</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1377.4195014515</v>
+        <v>1397.69834659753</v>
       </c>
       <c r="F32" t="n">
-        <v>2185.51775185136</v>
+        <v>2418.35658929398</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>83.0203359218199</v>
+        <v>85.0363820878814</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>295.546381358129</v>
+        <v>324.724383066685</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1606.82056409559</v>
+        <v>1641.42162989311</v>
       </c>
       <c r="F33" t="n">
-        <v>2363.87898422248</v>
+        <v>2578.61096176462</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>238.546381358129</v>
+        <v>267.724383066685</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>218.345953966965</v>
+        <v>272.626380285965</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1669.70332060847</v>
+        <v>1810.04190625779</v>
       </c>
       <c r="F34" t="n">
-        <v>2381.6413249135</v>
+        <v>2603.66458683305</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>165.345953966965</v>
+        <v>219.626380285965</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>165.921326076981</v>
+        <v>123.26553377236</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1732.12573430316</v>
+        <v>1798.40717869001</v>
       </c>
       <c r="F35" t="n">
-        <v>2441.65125473478</v>
+        <v>2661.61862067523</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>138.921326076981</v>
+        <v>96.2655337723598</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>67.4428553637665</v>
+        <v>23.8983695093955</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1519.49712505248</v>
+        <v>1442.72446132164</v>
       </c>
       <c r="F36" t="n">
-        <v>2311.68125684386</v>
+        <v>2394.86392683916</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>66.4428553637665</v>
+        <v>22.8983695093955</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>7.72231601203026</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1305.08345803621</v>
+        <v>1262.23111338339</v>
       </c>
       <c r="F37" t="n">
-        <v>2329.98242721611</v>
+        <v>2474.44434230542</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.72231601203026</v>
+        <v>-3</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1085.1859802989</v>
+        <v>1194.24943969272</v>
       </c>
       <c r="F38" t="n">
-        <v>2145.28296125</v>
+        <v>2415.72532781622</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1656.02396542521</v>
+        <v>1808.7305366805</v>
       </c>
       <c r="F39" t="n">
-        <v>2470.50472314236</v>
+        <v>2688.73623011468</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>48.5126779230205</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1753.17965979938</v>
+        <v>1921.86043378616</v>
       </c>
       <c r="F40" t="n">
-        <v>2443.65269484333</v>
+        <v>2738.33010574432</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>-3</v>
+        <v>45.5126779230205</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>59.4483591824141</v>
+        <v>89.4028334647075</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1796.39190918947</v>
+        <v>1821.5316427118</v>
       </c>
       <c r="F41" t="n">
-        <v>2403.21459268787</v>
+        <v>2638.23769106881</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>58.4483591824141</v>
+        <v>88.4028334647075</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>58.9528336305729</v>
+        <v>24.8420395533744</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1659.68639852782</v>
+        <v>1770.61161617574</v>
       </c>
       <c r="F42" t="n">
-        <v>2293.68106630861</v>
+        <v>2604.57765763745</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>58.9528336305729</v>
+        <v>24.8420395533744</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>29.9598245121175</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1611.67938885575</v>
+        <v>1609.52311592368</v>
       </c>
       <c r="F43" t="n">
-        <v>2414.16204614369</v>
+        <v>2621.61596967318</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>26.9598245121175</v>
+        <v>-3</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>104.048482774254</v>
+        <v>89.978172586855</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1259.18699077778</v>
+        <v>1474.56887799637</v>
       </c>
       <c r="F44" t="n">
-        <v>2325.06949699255</v>
+        <v>2466.35618546785</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>71.0484827742544</v>
+        <v>56.978172586855</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>284.367439384093</v>
+        <v>292.814603883655</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1514.99579073141</v>
+        <v>1764.58358748455</v>
       </c>
       <c r="F45" t="n">
-        <v>2396.52904742175</v>
+        <v>2600.3780679821</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>204.367439384093</v>
+        <v>212.814603883655</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>166.432802313568</v>
+        <v>228.718446935428</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1644.01475548863</v>
+        <v>1859.59397738926</v>
       </c>
       <c r="F46" t="n">
-        <v>2347.51027148975</v>
+        <v>2612.10813392169</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>104.432802313568</v>
+        <v>166.718446935428</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>107.632605345926</v>
+        <v>179.909061802052</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1620.33249524544</v>
+        <v>1779.1913459346</v>
       </c>
       <c r="F47" t="n">
-        <v>2423.139322149</v>
+        <v>2656.41629829379</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>75.6326053459262</v>
+        <v>147.909061802052</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>142.100106516793</v>
+        <v>68.0166170863779</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1730.59992210659</v>
+        <v>1641.07134500775</v>
       </c>
       <c r="F48" t="n">
-        <v>2445.86677091332</v>
+        <v>2693.30961806135</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>130.100106516793</v>
+        <v>56.0166170863779</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>57.1450464815139</v>
+        <v>1.48848010218895</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1636.96098409089</v>
+        <v>1748.15621036448</v>
       </c>
       <c r="F49" t="n">
-        <v>2387.73542174871</v>
+        <v>2630.04666887272</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>53.1450464815139</v>
+        <v>-2.51151989781105</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272.279923767045</v>
+        <v>254.978138622258</v>
       </c>
       <c r="F3" t="n">
-        <v>376.139268956894</v>
+        <v>359.692968632402</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>338.419389486532</v>
+        <v>301.607225189755</v>
       </c>
       <c r="F4" t="n">
-        <v>594.582242952781</v>
+        <v>448.894554900978</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>809.177138029519</v>
+        <v>601.324735147575</v>
       </c>
       <c r="F5" t="n">
-        <v>1773.29082615962</v>
+        <v>1247.45976570351</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>958.228866907608</v>
+        <v>768.928802655745</v>
       </c>
       <c r="F6" t="n">
-        <v>1836.71051527942</v>
+        <v>1438.17264810886</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>4.35266208834269</v>
+        <v>2.27381621367978</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>708.332797798918</v>
+        <v>544.578837438132</v>
       </c>
       <c r="F7" t="n">
-        <v>1688.32782491095</v>
+        <v>1203.66923960347</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.64733791165731</v>
+        <v>-3.72618378632022</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>134.332626104082</v>
+        <v>128.666225377227</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>910.688753799615</v>
+        <v>654.396529078582</v>
       </c>
       <c r="F8" t="n">
-        <v>1932.11887577842</v>
+        <v>1465.25206642596</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>65.332626104082</v>
+        <v>59.6662253772271</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>343.357194826915</v>
+        <v>340.465096986078</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1180.19602482982</v>
+        <v>939.264048144212</v>
       </c>
       <c r="F9" t="n">
-        <v>2094.14024395584</v>
+        <v>1602.8287961124</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>274.357194826915</v>
+        <v>271.465096986078</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>204.319548580356</v>
+        <v>208.450482066848</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1054.47438632673</v>
+        <v>796.223578999396</v>
       </c>
       <c r="F10" t="n">
-        <v>1997.9092242857</v>
+        <v>1487.26456139706</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>67.3195485803562</v>
+        <v>71.4504820668477</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>47.2539700323799</v>
+        <v>54.9824535964919</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>752.558107320874</v>
+        <v>578.154910677943</v>
       </c>
       <c r="F11" t="n">
-        <v>1806.74993186705</v>
+        <v>1351.33633918474</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25397003237985</v>
+        <v>12.9824535964919</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>529.35192150308</v>
+        <v>520.782994662582</v>
       </c>
       <c r="F12" t="n">
-        <v>1590.79294421306</v>
+        <v>1132.60021207638</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -791,7 +791,7 @@
         <v>540.275085515153</v>
       </c>
       <c r="F13" t="n">
-        <v>1516.33198772952</v>
+        <v>1043.06483211359</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>750.01497554733</v>
+        <v>554.474684315649</v>
       </c>
       <c r="F14" t="n">
-        <v>1710.16154334685</v>
+        <v>1173.44828744567</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>15.7977731064104</v>
+        <v>0.0736080827840944</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1181.87851704323</v>
+        <v>873.024726509974</v>
       </c>
       <c r="F15" t="n">
-        <v>1931.03679022431</v>
+        <v>1494.91606565094</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.7977731064104</v>
+        <v>0.0736080827840944</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>16.5384715139995</v>
+        <v>10.7961920147094</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1332.82038271736</v>
+        <v>981.321326573523</v>
       </c>
       <c r="F16" t="n">
-        <v>1961.85593652343</v>
+        <v>1532.07993251643</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>16.5384715139995</v>
+        <v>10.7961920147094</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1340.98504526097</v>
+        <v>965.346477532478</v>
       </c>
       <c r="F17" t="n">
-        <v>2192.58104204746</v>
+        <v>1610.29335679672</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1304.93752568308</v>
+        <v>987.826132585542</v>
       </c>
       <c r="F18" t="n">
-        <v>2482.81380371492</v>
+        <v>1983.76800899424</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1136.66054678825</v>
+        <v>914.170394632834</v>
       </c>
       <c r="F19" t="n">
-        <v>2123.58898430062</v>
+        <v>1694.63913104194</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>120.215168978794</v>
+        <v>110.723154951442</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1167.39135659596</v>
+        <v>851.723696579942</v>
       </c>
       <c r="F20" t="n">
-        <v>2235.25377251154</v>
+        <v>1663.0893061776</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>103.215168978794</v>
+        <v>93.7231549514422</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>356.119712194118</v>
+        <v>335.476116248648</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1635.33754000482</v>
+        <v>1187.55630152838</v>
       </c>
       <c r="F21" t="n">
-        <v>2479.88131981096</v>
+        <v>1842.32015949287</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>284.119712194118</v>
+        <v>263.476116248648</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>243.050429060495</v>
+        <v>234.510692885332</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1600.0083812537</v>
+        <v>1212.64994068625</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.185736382</v>
+        <v>1968.55517119565</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>180.050429060495</v>
+        <v>171.510692885332</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>75.401347394458</v>
+        <v>83.1130949616459</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1611.45079047532</v>
+        <v>1195.46628780686</v>
       </c>
       <c r="F23" t="n">
-        <v>2411.25526239101</v>
+        <v>1921.90537147396</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>36.401347394458</v>
+        <v>44.1130949616459</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>7.82597877361967</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1136.64092569656</v>
+        <v>811.776356939282</v>
       </c>
       <c r="F24" t="n">
-        <v>1981.17024201667</v>
+        <v>1452.05990202354</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-14</v>
+        <v>-6.17402122638033</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>982.027637490357</v>
+        <v>757.313050655695</v>
       </c>
       <c r="F25" t="n">
-        <v>2052.63198601384</v>
+        <v>1625.06819155231</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1055.4067162723</v>
+        <v>760.43129878723</v>
       </c>
       <c r="F26" t="n">
-        <v>2191.07727569148</v>
+        <v>1709.77872326811</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>10.720985649363</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1636.91771744021</v>
+        <v>1160.32257148498</v>
       </c>
       <c r="F27" t="n">
-        <v>2376.39788332858</v>
+        <v>1835.02068496425</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>9.72098564936296</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>68.1688554698061</v>
+        <v>35.5985814042469</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1777.00598447955</v>
+        <v>1410.37736156058</v>
       </c>
       <c r="F28" t="n">
-        <v>2462.66599855949</v>
+        <v>1935.46815587777</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>66.1688554698061</v>
+        <v>33.5985814042469</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>35.7211122581728</v>
+        <v>37.9130259817929</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1561.81972320947</v>
+        <v>1120.84299270834</v>
       </c>
       <c r="F29" t="n">
-        <v>2437.27750858359</v>
+        <v>1962.92995275388</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>35.7211122581728</v>
+        <v>37.9130259817929</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1595.11801281309</v>
+        <v>1208.16431370196</v>
       </c>
       <c r="F30" t="n">
-        <v>2594.19523974546</v>
+        <v>2036.62938102858</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1286.27656860569</v>
+        <v>1042.38061536435</v>
       </c>
       <c r="F31" t="n">
-        <v>2452.63300683367</v>
+        <v>2091.3429109561</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>98.0363820878814</v>
+        <v>92.8317112176975</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1397.69834659753</v>
+        <v>1082.73464097861</v>
       </c>
       <c r="F32" t="n">
-        <v>2418.35658929398</v>
+        <v>1862.29010932523</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>85.0363820878814</v>
+        <v>79.8317112176975</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>324.724383066685</v>
+        <v>310.790561157857</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1641.42162989311</v>
+        <v>1366.98797933007</v>
       </c>
       <c r="F33" t="n">
-        <v>2578.61096176462</v>
+        <v>2171.93339014986</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>267.724383066685</v>
+        <v>253.790561157857</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>272.626380285965</v>
+        <v>244.665092082335</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1810.04190625779</v>
+        <v>1422.93610939132</v>
       </c>
       <c r="F34" t="n">
-        <v>2603.66458683305</v>
+        <v>2087.75855554226</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>219.626380285965</v>
+        <v>191.665092082335</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>123.26553377236</v>
+        <v>130.214616337173</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1798.40717869001</v>
+        <v>1352.66907128059</v>
       </c>
       <c r="F35" t="n">
-        <v>2661.61862067523</v>
+        <v>2309.75513314184</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>96.2655337723598</v>
+        <v>103.214616337173</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>23.8983695093955</v>
+        <v>42.4495800982366</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1442.72446132164</v>
+        <v>1045.41603705987</v>
       </c>
       <c r="F36" t="n">
-        <v>2394.86392683916</v>
+        <v>1929.55630275681</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>22.8983695093955</v>
+        <v>41.4495800982366</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1262.23111338339</v>
+        <v>924.129813685913</v>
       </c>
       <c r="F37" t="n">
-        <v>2474.44434230542</v>
+        <v>1939.87490747641</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1194.24943969272</v>
+        <v>900.144436576483</v>
       </c>
       <c r="F38" t="n">
-        <v>2415.72532781622</v>
+        <v>1820.43014040812</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1808.7305366805</v>
+        <v>1386.67804516771</v>
       </c>
       <c r="F39" t="n">
-        <v>2688.73623011468</v>
+        <v>2185.96921927416</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>48.5126779230205</v>
+        <v>9.45860264206813</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1921.86043378616</v>
+        <v>1496.43686123418</v>
       </c>
       <c r="F40" t="n">
-        <v>2738.33010574432</v>
+        <v>2202.05986232484</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>45.5126779230205</v>
+        <v>6.45860264206813</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>89.4028334647075</v>
+        <v>72.9849152134362</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1821.5316427118</v>
+        <v>1486.034179702</v>
       </c>
       <c r="F41" t="n">
-        <v>2638.23769106881</v>
+        <v>2246.66894425637</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>88.4028334647075</v>
+        <v>71.9849152134362</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>24.8420395533744</v>
+        <v>35.8347305774807</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1770.61161617574</v>
+        <v>1293.06371296081</v>
       </c>
       <c r="F42" t="n">
-        <v>2604.57765763745</v>
+        <v>2097.27962185932</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>24.8420395533744</v>
+        <v>35.8347305774807</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.05504620735705</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1609.52311592368</v>
+        <v>1360.47991576257</v>
       </c>
       <c r="F43" t="n">
-        <v>2621.61596967318</v>
+        <v>2316.48569727922</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>-3</v>
+        <v>-1.94495379264295</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>89.978172586855</v>
+        <v>90.2476490828214</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1474.56887799637</v>
+        <v>1184.80528973202</v>
       </c>
       <c r="F44" t="n">
-        <v>2466.35618546785</v>
+        <v>2011.68402622186</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>56.978172586855</v>
+        <v>57.2476490828214</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>292.814603883655</v>
+        <v>286.771438411819</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1764.58358748455</v>
+        <v>1514.99579073141</v>
       </c>
       <c r="F45" t="n">
-        <v>2600.3780679821</v>
+        <v>2099.55985156725</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>212.814603883655</v>
+        <v>206.771438411819</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>228.718446935428</v>
+        <v>200.503894375854</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1859.59397738926</v>
+        <v>1560.04261073404</v>
       </c>
       <c r="F46" t="n">
-        <v>2612.10813392169</v>
+        <v>2191.24604102313</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>166.718446935428</v>
+        <v>138.503894375854</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>179.909061802052</v>
+        <v>153.999406877275</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1779.1913459346</v>
+        <v>1443.50524495038</v>
       </c>
       <c r="F47" t="n">
-        <v>2656.41629829379</v>
+        <v>2311.75722156458</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>147.909061802052</v>
+        <v>121.999406877275</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>68.0166170863779</v>
+        <v>78.0042928001795</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1641.07134500775</v>
+        <v>1356.38925532798</v>
       </c>
       <c r="F48" t="n">
-        <v>2693.30961806135</v>
+        <v>2292.55225304514</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>56.0166170863779</v>
+        <v>66.0042928001795</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1.48848010218895</v>
+        <v>11.5414797704154</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1748.15621036448</v>
+        <v>1260.28741822718</v>
       </c>
       <c r="F49" t="n">
-        <v>2630.04666887272</v>
+        <v>2071.95209271933</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>-2.51151989781105</v>
+        <v>7.54147977041536</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>254.978138622258</v>
+        <v>249.218973172329</v>
       </c>
       <c r="F3" t="n">
-        <v>359.692968632402</v>
+        <v>364.231772668687</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>301.607225189755</v>
+        <v>307.962574762421</v>
       </c>
       <c r="F4" t="n">
-        <v>448.894554900978</v>
+        <v>521.517222116825</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>601.324735147575</v>
+        <v>852.211829142959</v>
       </c>
       <c r="F5" t="n">
-        <v>1247.45976570351</v>
+        <v>1661.51002525855</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>768.928802655745</v>
+        <v>1301.79853370655</v>
       </c>
       <c r="F6" t="n">
-        <v>1438.17264810886</v>
+        <v>1882.81771133808</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2.27381621367978</v>
+        <v>3.08564923943004</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>544.578837438132</v>
+        <v>955.592599772396</v>
       </c>
       <c r="F7" t="n">
-        <v>1203.66923960347</v>
+        <v>1802.09251785053</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.72618378632022</v>
+        <v>-2.91435076056996</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>128.666225377227</v>
+        <v>135.330505693834</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>654.396529078582</v>
+        <v>1201.63772878107</v>
       </c>
       <c r="F8" t="n">
-        <v>1465.25206642596</v>
+        <v>1916.00594383939</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>59.6662253772271</v>
+        <v>66.3305056938337</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>340.465096986078</v>
+        <v>352.238356627724</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>939.264048144212</v>
+        <v>1377.5834930611</v>
       </c>
       <c r="F9" t="n">
-        <v>1602.8287961124</v>
+        <v>1965.31542296483</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>271.465096986078</v>
+        <v>283.238356627724</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>208.450482066848</v>
+        <v>209.114679483633</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>796.223578999396</v>
+        <v>1134.46786939636</v>
       </c>
       <c r="F10" t="n">
-        <v>1487.26456139706</v>
+        <v>1858.32345056873</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>71.4504820668477</v>
+        <v>72.1146794836333</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>54.9824535964919</v>
+        <v>49.9780921829866</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>578.154910677943</v>
+        <v>844.831981995366</v>
       </c>
       <c r="F11" t="n">
-        <v>1351.33633918474</v>
+        <v>1802.28997300894</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>12.9824535964919</v>
+        <v>7.97809218298661</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>520.782994662582</v>
+        <v>542.541643958456</v>
       </c>
       <c r="F12" t="n">
-        <v>1132.60021207638</v>
+        <v>1516.57788543539</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -791,7 +791,7 @@
         <v>540.275085515153</v>
       </c>
       <c r="F13" t="n">
-        <v>1043.06483211359</v>
+        <v>1482.47087930039</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>554.474684315649</v>
+        <v>834.900602522812</v>
       </c>
       <c r="F14" t="n">
-        <v>1173.44828744567</v>
+        <v>1749.06644209252</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0736080827840944</v>
+        <v>21.4287032358412</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>873.024726509974</v>
+        <v>1228.32474592382</v>
       </c>
       <c r="F15" t="n">
-        <v>1494.91606565094</v>
+        <v>1864.00248965034</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0736080827840944</v>
+        <v>21.4287032358412</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>10.7961920147094</v>
+        <v>31.7248780326545</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>981.321326573523</v>
+        <v>1274.94117920648</v>
       </c>
       <c r="F16" t="n">
-        <v>1532.07993251643</v>
+        <v>1899.42858784954</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10.7961920147094</v>
+        <v>31.7248780326545</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>965.346477532478</v>
+        <v>1333.87700550624</v>
       </c>
       <c r="F17" t="n">
-        <v>1610.29335679672</v>
+        <v>1969.69246208934</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>987.826132585542</v>
+        <v>1508.82995809599</v>
       </c>
       <c r="F18" t="n">
-        <v>1983.76800899424</v>
+        <v>2158.84674002242</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>914.170394632834</v>
+        <v>1323.73528254973</v>
       </c>
       <c r="F19" t="n">
-        <v>1694.63913104194</v>
+        <v>2005.24320085423</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>110.723154951442</v>
+        <v>112.250954801657</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>851.723696579942</v>
+        <v>1510.95330922636</v>
       </c>
       <c r="F20" t="n">
-        <v>1663.0893061776</v>
+        <v>2067.43590544609</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>93.7231549514422</v>
+        <v>95.2509548016572</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>335.476116248648</v>
+        <v>362.588932705843</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1187.55630152838</v>
+        <v>1650.53778275858</v>
       </c>
       <c r="F21" t="n">
-        <v>1842.32015949287</v>
+        <v>2126.47053999975</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>263.476116248648</v>
+        <v>290.588932705843</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>234.510692885332</v>
+        <v>279.729903319266</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1212.64994068625</v>
+        <v>1421.92789910336</v>
       </c>
       <c r="F22" t="n">
-        <v>1968.55517119565</v>
+        <v>2093.15238449137</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>171.510692885332</v>
+        <v>216.729903319266</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>83.1130949616459</v>
+        <v>94.1339884766539</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1195.46628780686</v>
+        <v>1376.62634503702</v>
       </c>
       <c r="F23" t="n">
-        <v>1921.90537147396</v>
+        <v>2063.604373892</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>44.1130949616459</v>
+        <v>55.1339884766539</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>7.82597877361967</v>
+        <v>6.37422193631244</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>811.776356939282</v>
+        <v>1171.79046243504</v>
       </c>
       <c r="F24" t="n">
-        <v>1452.05990202354</v>
+        <v>1914.13609076562</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-6.17402122638033</v>
+        <v>-7.62577806368756</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>757.313050655695</v>
+        <v>973.171290481425</v>
       </c>
       <c r="F25" t="n">
-        <v>1625.06819155231</v>
+        <v>1942.63001149017</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>760.43129878723</v>
+        <v>1006.92412478685</v>
       </c>
       <c r="F26" t="n">
-        <v>1709.77872326811</v>
+        <v>1943.97422535688</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1160.32257148498</v>
+        <v>1593.86236166593</v>
       </c>
       <c r="F27" t="n">
-        <v>1835.02068496425</v>
+        <v>2040.69172288124</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>35.5985814042469</v>
+        <v>69.3343864368621</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1410.37736156058</v>
+        <v>1757.25939233588</v>
       </c>
       <c r="F28" t="n">
-        <v>1935.46815587777</v>
+        <v>2084.82180036323</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>33.5985814042469</v>
+        <v>67.3343864368621</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>37.9130259817929</v>
+        <v>61.2601684006923</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1120.84299270834</v>
+        <v>1415.33123332668</v>
       </c>
       <c r="F29" t="n">
-        <v>1962.92995275388</v>
+        <v>2028.72162859111</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>37.9130259817929</v>
+        <v>61.2601684006923</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>5.69425050107305</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1208.16431370196</v>
+        <v>1606.22721774903</v>
       </c>
       <c r="F30" t="n">
-        <v>2036.62938102858</v>
+        <v>2159.90409982184</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.69425050107305</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1042.38061536435</v>
+        <v>1373.08673165879</v>
       </c>
       <c r="F31" t="n">
-        <v>2091.3429109561</v>
+        <v>2134.998174266</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>92.8317112176975</v>
+        <v>94.8796689807719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1082.73464097861</v>
+        <v>1522.11935350662</v>
       </c>
       <c r="F32" t="n">
-        <v>1862.29010932523</v>
+        <v>2075.39403438098</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>79.8317112176975</v>
+        <v>81.8796689807719</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>310.790561157857</v>
+        <v>309.097533753258</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1366.98797933007</v>
+        <v>1641.8490915179</v>
       </c>
       <c r="F33" t="n">
-        <v>2171.93339014986</v>
+        <v>2113.44162596354</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>253.790561157857</v>
+        <v>252.097533753258</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>244.665092082335</v>
+        <v>258.010695722719</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1422.93610939132</v>
+        <v>1521.9374806138</v>
       </c>
       <c r="F34" t="n">
-        <v>2087.75855554226</v>
+        <v>2124.66069947341</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>191.665092082335</v>
+        <v>205.010695722719</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>130.214616337173</v>
+        <v>164.6114235273</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1352.66907128059</v>
+        <v>1539.68865756358</v>
       </c>
       <c r="F35" t="n">
-        <v>2309.75513314184</v>
+        <v>2124.17522106864</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>103.214616337173</v>
+        <v>137.6114235273</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>42.4495800982366</v>
+        <v>47.7092326663688</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1045.41603705987</v>
+        <v>1379.97726963429</v>
       </c>
       <c r="F36" t="n">
-        <v>1929.55630275681</v>
+        <v>2032.28278211743</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>41.4495800982366</v>
+        <v>46.7092326663688</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>924.129813685913</v>
+        <v>1361.97663482514</v>
       </c>
       <c r="F37" t="n">
-        <v>1939.87490747641</v>
+        <v>2061.07376602074</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>900.144436576483</v>
+        <v>1072.43512869422</v>
       </c>
       <c r="F38" t="n">
-        <v>1820.43014040812</v>
+        <v>2046.90579517037</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1386.67804516771</v>
+        <v>1537.47073785374</v>
       </c>
       <c r="F39" t="n">
-        <v>2185.96921927416</v>
+        <v>2135.15091932048</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>9.45860264206813</v>
+        <v>23.4761591834119</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1496.43686123418</v>
+        <v>1829.36194218098</v>
       </c>
       <c r="F40" t="n">
-        <v>2202.05986232484</v>
+        <v>2182.34023042816</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>6.45860264206813</v>
+        <v>20.4761591834119</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>72.9849152134362</v>
+        <v>120.567279178847</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1486.034179702</v>
+        <v>1728.48224494035</v>
       </c>
       <c r="F41" t="n">
-        <v>2246.66894425637</v>
+        <v>2164.22506417187</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>71.9849152134362</v>
+        <v>119.567279178847</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35.8347305774807</v>
+        <v>54.8486281466895</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1293.06371296081</v>
+        <v>1565.83133604643</v>
       </c>
       <c r="F42" t="n">
-        <v>2097.27962185932</v>
+        <v>2104.61503000646</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.8347305774807</v>
+        <v>54.8486281466895</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1.05504620735705</v>
+        <v>6.79182842016265</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1360.47991576257</v>
+        <v>1537.66429571217</v>
       </c>
       <c r="F43" t="n">
-        <v>2316.48569727922</v>
+        <v>2147.324238935</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.94495379264295</v>
+        <v>3.79182842016265</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>90.2476490828214</v>
+        <v>96.7683810917721</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1184.80528973202</v>
+        <v>1254.42207557527</v>
       </c>
       <c r="F44" t="n">
-        <v>2011.68402622186</v>
+        <v>2070.28339386479</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>57.2476490828214</v>
+        <v>63.7683810917721</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>286.771438411819</v>
+        <v>287.078678470938</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>1514.99579073141</v>
       </c>
       <c r="F45" t="n">
-        <v>2099.55985156725</v>
+        <v>2138.99141343504</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>206.771438411819</v>
+        <v>207.078678470938</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>200.503894375854</v>
+        <v>191.797747780122</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1560.04261073404</v>
+        <v>1543.40452749814</v>
       </c>
       <c r="F46" t="n">
-        <v>2191.24604102313</v>
+        <v>2106.99858526887</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>138.503894375854</v>
+        <v>129.797747780122</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>153.999406877275</v>
+        <v>152.147605622333</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1443.50524495038</v>
+        <v>1517.883345582</v>
       </c>
       <c r="F47" t="n">
-        <v>2311.75722156458</v>
+        <v>2113.98042822685</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>121.999406877275</v>
+        <v>120.147605622333</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>78.0042928001795</v>
+        <v>99.1512050103697</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1356.38925532798</v>
+        <v>1419.28694502872</v>
       </c>
       <c r="F48" t="n">
-        <v>2292.55225304514</v>
+        <v>2109.67074145695</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>66.0042928001795</v>
+        <v>87.1512050103697</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>11.5414797704154</v>
+        <v>31.6150840567536</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1260.28741822718</v>
+        <v>1552.50641726358</v>
       </c>
       <c r="F49" t="n">
-        <v>2071.95209271933</v>
+        <v>2144.29540516459</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>7.54147977041536</v>
+        <v>27.6150840567536</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>249.218973172329</v>
+        <v>301.144468124529</v>
       </c>
       <c r="F3" t="n">
-        <v>364.231772668687</v>
+        <v>413.848938656735</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.962574762421</v>
+        <v>359.656180225247</v>
       </c>
       <c r="F4" t="n">
-        <v>521.517222116825</v>
+        <v>559.621920097467</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>852.211829142959</v>
+        <v>860.441796170557</v>
       </c>
       <c r="F5" t="n">
-        <v>1661.51002525855</v>
+        <v>1911.57681282388</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1301.79853370655</v>
+        <v>1190.64932084838</v>
       </c>
       <c r="F6" t="n">
-        <v>1882.81771133808</v>
+        <v>2114.06509836001</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>3.08564923943004</v>
+        <v>1.43302597995166</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>955.592599772396</v>
+        <v>759.498351662774</v>
       </c>
       <c r="F7" t="n">
-        <v>1802.09251785053</v>
+        <v>1810.50655614458</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.91435076056996</v>
+        <v>-4.56697402004834</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>135.330505693834</v>
+        <v>135.419541036474</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.63772878107</v>
+        <v>858.67076278754</v>
       </c>
       <c r="F8" t="n">
-        <v>1916.00594383939</v>
+        <v>2114.00337240013</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>66.3305056938337</v>
+        <v>66.4195410364739</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>352.238356627724</v>
+        <v>355.755299035654</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1377.5834930611</v>
+        <v>1296.76481865423</v>
       </c>
       <c r="F9" t="n">
-        <v>1965.31542296483</v>
+        <v>2194.58139319124</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>283.238356627724</v>
+        <v>286.755299035654</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>209.114679483633</v>
+        <v>225.274714039678</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1134.46786939636</v>
+        <v>1197.09041745347</v>
       </c>
       <c r="F10" t="n">
-        <v>1858.32345056873</v>
+        <v>2056.10040259921</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>72.1146794836333</v>
+        <v>88.274714039678</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>49.9780921829866</v>
+        <v>66.3057411725839</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>844.831981995366</v>
+        <v>936.212640715907</v>
       </c>
       <c r="F11" t="n">
-        <v>1802.28997300894</v>
+        <v>1876.38981127636</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>7.97809218298661</v>
+        <v>24.3057411725839</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1.40158941311842</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>542.541643958456</v>
+        <v>555.536302551641</v>
       </c>
       <c r="F12" t="n">
-        <v>1516.57788543539</v>
+        <v>1685.78198520459</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>-10</v>
+        <v>-8.59841058688158</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -791,7 +791,7 @@
         <v>540.275085515153</v>
       </c>
       <c r="F13" t="n">
-        <v>1482.47087930039</v>
+        <v>1606.33047128883</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>834.900602522812</v>
+        <v>847.472666715756</v>
       </c>
       <c r="F14" t="n">
-        <v>1749.06644209252</v>
+        <v>1852.53531715251</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4287032358412</v>
+        <v>2.30190280221918</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1228.32474592382</v>
+        <v>1263.76180115671</v>
       </c>
       <c r="F15" t="n">
-        <v>1864.00248965034</v>
+        <v>2092.2600549983</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.4287032358412</v>
+        <v>2.30190280221918</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>31.7248780326545</v>
+        <v>38.538939832172</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1274.94117920648</v>
+        <v>1204.05176132824</v>
       </c>
       <c r="F16" t="n">
-        <v>1899.42858784954</v>
+        <v>2106.89521605976</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>31.7248780326545</v>
+        <v>38.538939832172</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>28.4810192782937</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1333.87700550624</v>
+        <v>1369.4256101838</v>
       </c>
       <c r="F17" t="n">
-        <v>1969.69246208934</v>
+        <v>2253.42959431311</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>28.4810192782937</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1508.82995809599</v>
+        <v>1445.54260691848</v>
       </c>
       <c r="F18" t="n">
-        <v>2158.84674002242</v>
+        <v>2521.31623799417</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1323.73528254973</v>
+        <v>1282.92248377651</v>
       </c>
       <c r="F19" t="n">
-        <v>2005.24320085423</v>
+        <v>2292.05842502347</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>112.250954801657</v>
+        <v>102.496067088048</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1510.95330922636</v>
+        <v>1161.9623597672</v>
       </c>
       <c r="F20" t="n">
-        <v>2067.43590544609</v>
+        <v>2260.55856419257</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>95.2509548016572</v>
+        <v>85.4960670880476</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>362.588932705843</v>
+        <v>324.723911604514</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1650.53778275858</v>
+        <v>1625.57659402595</v>
       </c>
       <c r="F21" t="n">
-        <v>2126.47053999975</v>
+        <v>2424.39337655214</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>290.588932705843</v>
+        <v>252.723911604514</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>279.729903319266</v>
+        <v>254.936093758344</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1421.92789910336</v>
+        <v>1652.72103301354</v>
       </c>
       <c r="F22" t="n">
-        <v>2093.15238449137</v>
+        <v>2505.30067402565</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>216.729903319266</v>
+        <v>191.936093758344</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>94.1339884766539</v>
+        <v>115.7493710954</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1376.62634503702</v>
+        <v>1742.29050016481</v>
       </c>
       <c r="F23" t="n">
-        <v>2063.604373892</v>
+        <v>2405.31312542141</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>55.1339884766539</v>
+        <v>76.7493710953999</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>6.37422193631244</v>
+        <v>34.435366332684</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1171.79046243504</v>
+        <v>1240.32753564555</v>
       </c>
       <c r="F24" t="n">
-        <v>1914.13609076562</v>
+        <v>2196.46277926083</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-7.62577806368756</v>
+        <v>20.435366332684</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>973.171290481425</v>
+        <v>1109.59313274133</v>
       </c>
       <c r="F25" t="n">
-        <v>1942.63001149017</v>
+        <v>2238.54414284657</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1006.92412478685</v>
+        <v>1007.27503316511</v>
       </c>
       <c r="F26" t="n">
-        <v>1943.97422535688</v>
+        <v>2274.77401243713</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1593.86236166593</v>
+        <v>1665.51004500722</v>
       </c>
       <c r="F27" t="n">
-        <v>2040.69172288124</v>
+        <v>2416.02226317989</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>69.3343864368621</v>
+        <v>18.9577942134678</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1757.25939233588</v>
+        <v>1713.38793091809</v>
       </c>
       <c r="F28" t="n">
-        <v>2084.82180036323</v>
+        <v>2456.49341478737</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>67.3343864368621</v>
+        <v>16.9577942134678</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>61.2601684006923</v>
+        <v>81.0941580963228</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1415.33123332668</v>
+        <v>1421.61832060035</v>
       </c>
       <c r="F29" t="n">
-        <v>2028.72162859111</v>
+        <v>2447.48219734054</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>61.2601684006923</v>
+        <v>81.0941580963228</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5.69425050107305</v>
+        <v>39.8930227506553</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1606.22721774903</v>
+        <v>1562.32658338702</v>
       </c>
       <c r="F30" t="n">
-        <v>2159.90409982184</v>
+        <v>2505.64373348187</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.69425050107305</v>
+        <v>39.8930227506553</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.74870059164563</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1373.08673165879</v>
+        <v>1242.63657763461</v>
       </c>
       <c r="F31" t="n">
-        <v>2134.998174266</v>
+        <v>2509.41939811361</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>-7</v>
+        <v>-3.25129940835437</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>94.8796689807719</v>
+        <v>96.0680571454398</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1522.11935350662</v>
+        <v>1584.37688697175</v>
       </c>
       <c r="F32" t="n">
-        <v>2075.39403438098</v>
+        <v>2436.18226832564</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>81.8796689807719</v>
+        <v>83.0680571454398</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>309.097533753258</v>
+        <v>291.286075551865</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1641.8490915179</v>
+        <v>1463.08113205419</v>
       </c>
       <c r="F33" t="n">
-        <v>2113.44162596354</v>
+        <v>2447.8787345863</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>252.097533753258</v>
+        <v>234.286075551865</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>258.010695722719</v>
+        <v>202.31907090888</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1521.9374806138</v>
+        <v>1669.43937350729</v>
       </c>
       <c r="F34" t="n">
-        <v>2124.66069947341</v>
+        <v>2510.86653572477</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>205.010695722719</v>
+        <v>149.31907090888</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>164.6114235273</v>
+        <v>154.591301292867</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1539.68865756358</v>
+        <v>1694.8388619136</v>
       </c>
       <c r="F35" t="n">
-        <v>2124.17522106864</v>
+        <v>2537.5731669538</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>137.6114235273</v>
+        <v>127.591301292867</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>47.7092326663688</v>
+        <v>82.3948708982659</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1379.97726963429</v>
+        <v>1350.60324542246</v>
       </c>
       <c r="F36" t="n">
-        <v>2032.28278211743</v>
+        <v>2445.6866964418</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>46.7092326663688</v>
+        <v>81.3948708982659</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>28.7000722259397</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1361.97663482514</v>
+        <v>1354.99604104618</v>
       </c>
       <c r="F37" t="n">
-        <v>2061.07376602074</v>
+        <v>2389.66596917606</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>-3</v>
+        <v>25.7000722259397</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1072.43512869422</v>
+        <v>1311.43854474073</v>
       </c>
       <c r="F38" t="n">
-        <v>2046.90579517037</v>
+        <v>2404.75249095572</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1537.47073785374</v>
+        <v>1676.02747192066</v>
       </c>
       <c r="F39" t="n">
-        <v>2135.15091932048</v>
+        <v>2525.92647093364</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>23.4761591834119</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1829.36194218098</v>
+        <v>1804.04902593394</v>
       </c>
       <c r="F40" t="n">
-        <v>2182.34023042816</v>
+        <v>2556.52344125173</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>20.4761591834119</v>
+        <v>-3</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>120.567279178847</v>
+        <v>37.7599561932516</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1728.48224494035</v>
+        <v>1799.1187506537</v>
       </c>
       <c r="F41" t="n">
-        <v>2164.22506417187</v>
+        <v>2553.34539521921</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>119.567279178847</v>
+        <v>36.7599561932516</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>54.8486281466895</v>
+        <v>96.6270132761138</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1565.83133604643</v>
+        <v>1610.39811711604</v>
       </c>
       <c r="F42" t="n">
-        <v>2104.61503000646</v>
+        <v>2483.10060251836</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>54.8486281466895</v>
+        <v>96.6270132761138</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6.79182842016265</v>
+        <v>55.2265082394282</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1537.66429571217</v>
+        <v>1585.4412142356</v>
       </c>
       <c r="F43" t="n">
-        <v>2147.324238935</v>
+        <v>2516.6019144622</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.79182842016265</v>
+        <v>52.2265082394282</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>96.7683810917721</v>
+        <v>108.718876359413</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1254.42207557527</v>
+        <v>1395.72594165013</v>
       </c>
       <c r="F44" t="n">
-        <v>2070.28339386479</v>
+        <v>2417.0179800324</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>63.7683810917721</v>
+        <v>75.7188763594127</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>287.078678470938</v>
+        <v>283.938314467196</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1514.99579073141</v>
+        <v>1583.8672338273</v>
       </c>
       <c r="F45" t="n">
-        <v>2138.99141343504</v>
+        <v>2435.99291579021</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>207.078678470938</v>
+        <v>203.938314467196</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>191.797747780122</v>
+        <v>159.867768240837</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1543.40452749814</v>
+        <v>1777.35649564347</v>
       </c>
       <c r="F46" t="n">
-        <v>2106.99858526887</v>
+        <v>2469.63342463057</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>129.797747780122</v>
+        <v>97.867768240837</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>152.147605622333</v>
+        <v>85.596675016004</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1517.883345582</v>
+        <v>1645.32363122486</v>
       </c>
       <c r="F47" t="n">
-        <v>2113.98042822685</v>
+        <v>2501.00564248771</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>120.147605622333</v>
+        <v>53.596675016004</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>99.1512050103697</v>
+        <v>136.203495033423</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1419.28694502872</v>
+        <v>1627.26111226875</v>
       </c>
       <c r="F48" t="n">
-        <v>2109.67074145695</v>
+        <v>2487.43631012662</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>87.1512050103697</v>
+        <v>124.203495033423</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>31.6150840567536</v>
+        <v>71.002407945673</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1552.50641726358</v>
+        <v>1634.11683799854</v>
       </c>
       <c r="F49" t="n">
-        <v>2144.29540516459</v>
+        <v>2515.74040799437</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>27.6150840567536</v>
+        <v>67.002407945673</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>196.199661462423</v>
+        <v>155.12229467945</v>
       </c>
       <c r="F2" t="n">
-        <v>314.760517755448</v>
+        <v>230.379290426085</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.144468124529</v>
+        <v>243.695998906421</v>
       </c>
       <c r="F3" t="n">
-        <v>413.848938656735</v>
+        <v>310.083045183076</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.656180225247</v>
+        <v>293.863936213126</v>
       </c>
       <c r="F4" t="n">
-        <v>559.621920097467</v>
+        <v>376.18677725556</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>860.441796170557</v>
+        <v>255.124453648325</v>
       </c>
       <c r="F5" t="n">
-        <v>1911.57681282388</v>
+        <v>335.860783026829</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1190.64932084838</v>
+        <v>246.146876724857</v>
       </c>
       <c r="F6" t="n">
-        <v>2114.06509836001</v>
+        <v>367.418290868376</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1.43302597995166</v>
+        <v>57.9175757539871</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>759.498351662774</v>
+        <v>342.410430279954</v>
       </c>
       <c r="F7" t="n">
-        <v>1810.50655614458</v>
+        <v>359.65548244151</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-4.56697402004834</v>
+        <v>51.9175757539871</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>135.419541036474</v>
+        <v>225.605601683259</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>858.67076278754</v>
+        <v>583.418534260475</v>
       </c>
       <c r="F8" t="n">
-        <v>2114.00337240013</v>
+        <v>653.58863048968</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>66.4195410364739</v>
+        <v>156.605601683259</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>355.755299035654</v>
+        <v>562.099649618042</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>16.9425936830643</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1296.76481865423</v>
+        <v>998.840208009582</v>
       </c>
       <c r="F9" t="n">
-        <v>2194.58139319124</v>
+        <v>1165.51979512118</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>286.755299035654</v>
+        <v>493.099649618042</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>225.274714039678</v>
+        <v>364.852092752191</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1197.09041745347</v>
+        <v>811.012918392777</v>
       </c>
       <c r="F10" t="n">
-        <v>2056.10040259921</v>
+        <v>968.421685752266</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>88.274714039678</v>
+        <v>227.852092752191</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>66.3057411725839</v>
+        <v>98.1866637524615</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>936.212640715907</v>
+        <v>540.262038297402</v>
       </c>
       <c r="F11" t="n">
-        <v>1876.38981127636</v>
+        <v>620.661958508363</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>24.3057411725839</v>
+        <v>56.1866637524615</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1.40158941311842</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>555.536302551641</v>
+        <v>436.391374739338</v>
       </c>
       <c r="F12" t="n">
-        <v>1685.78198520459</v>
+        <v>518.858268340906</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.59841058688158</v>
+        <v>-10</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>540.275085515153</v>
+        <v>338.792620853051</v>
       </c>
       <c r="F13" t="n">
-        <v>1606.33047128883</v>
+        <v>520.044908245429</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>847.472666715756</v>
+        <v>418.061083489331</v>
       </c>
       <c r="F14" t="n">
-        <v>1852.53531715251</v>
+        <v>565.630800953</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2.30190280221918</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1263.76180115671</v>
+        <v>382.501754182843</v>
       </c>
       <c r="F15" t="n">
-        <v>2092.2600549983</v>
+        <v>527.428618491124</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.30190280221918</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>38.538939832172</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1204.05176132824</v>
+        <v>544.709196712032</v>
       </c>
       <c r="F16" t="n">
-        <v>2106.89521605976</v>
+        <v>762.852701729098</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>38.538939832172</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>28.4810192782937</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1369.4256101838</v>
+        <v>504.918927095556</v>
       </c>
       <c r="F17" t="n">
-        <v>2253.42959431311</v>
+        <v>614.451872817767</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.4810192782937</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1445.54260691848</v>
+        <v>612.297127767984</v>
       </c>
       <c r="F18" t="n">
-        <v>2521.31623799417</v>
+        <v>723.856097975474</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>31.9668969797342</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1282.92248377651</v>
+        <v>669.083018091133</v>
       </c>
       <c r="F19" t="n">
-        <v>2292.05842502347</v>
+        <v>845.174773597756</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>-10</v>
+        <v>21.9668969797342</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>102.496067088048</v>
+        <v>218.177427618621</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1161.9623597672</v>
+        <v>836.773956760367</v>
       </c>
       <c r="F20" t="n">
-        <v>2260.55856419257</v>
+        <v>1008.32205207445</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>85.4960670880476</v>
+        <v>201.177427618621</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>324.723911604514</v>
+        <v>490.661139970104</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1625.57659402595</v>
+        <v>1143.1641170027</v>
       </c>
       <c r="F21" t="n">
-        <v>2424.39337655214</v>
+        <v>1220.14038318938</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>252.723911604514</v>
+        <v>418.661139970104</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>254.936093758344</v>
+        <v>237.714924941311</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1652.72103301354</v>
+        <v>909.812759888747</v>
       </c>
       <c r="F22" t="n">
-        <v>2505.30067402565</v>
+        <v>1013.28101609121</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>191.936093758344</v>
+        <v>174.714924941311</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>115.7493710954</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1742.29050016481</v>
+        <v>590.121966636416</v>
       </c>
       <c r="F23" t="n">
-        <v>2405.31312542141</v>
+        <v>756.557791226494</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,10 +1120,10 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>76.7493710953999</v>
+        <v>-39</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>34.435366332684</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1240.32753564555</v>
+        <v>581.013620146256</v>
       </c>
       <c r="F24" t="n">
-        <v>2196.46277926083</v>
+        <v>725.288615517666</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>20.435366332684</v>
+        <v>-14</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1109.59313274133</v>
+        <v>624.310367329419</v>
       </c>
       <c r="F25" t="n">
-        <v>2238.54414284657</v>
+        <v>853.332685871369</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1007.27503316511</v>
+        <v>594.967957768635</v>
       </c>
       <c r="F26" t="n">
-        <v>2274.77401243713</v>
+        <v>870.646138944493</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1665.51004500722</v>
+        <v>749.693843570301</v>
       </c>
       <c r="F27" t="n">
-        <v>2416.02226317989</v>
+        <v>970.060310316171</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>18.9577942134678</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1713.38793091809</v>
+        <v>900.303557607761</v>
       </c>
       <c r="F28" t="n">
-        <v>2456.49341478737</v>
+        <v>1119.01030609829</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>16.9577942134678</v>
+        <v>-2</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>81.0941580963228</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1421.61832060035</v>
+        <v>840.696602380735</v>
       </c>
       <c r="F29" t="n">
-        <v>2447.48219734054</v>
+        <v>959.578892373181</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>81.0941580963228</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>39.8930227506553</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1562.32658338702</v>
+        <v>820.084389556805</v>
       </c>
       <c r="F30" t="n">
-        <v>2505.64373348187</v>
+        <v>1068.13648693556</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>39.8930227506553</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>3.74870059164563</v>
+        <v>12.0180736924289</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1242.63657763461</v>
+        <v>1006.25978847277</v>
       </c>
       <c r="F31" t="n">
-        <v>2509.41939811361</v>
+        <v>1121.19650033715</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.25129940835437</v>
+        <v>5.01807369242885</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>96.0680571454398</v>
+        <v>164.718714616137</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1584.37688697175</v>
+        <v>1015.85416766565</v>
       </c>
       <c r="F32" t="n">
-        <v>2436.18226832564</v>
+        <v>1249.06268217378</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>83.0680571454398</v>
+        <v>151.718714616137</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>291.286075551865</v>
+        <v>575.954873768098</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1463.08113205419</v>
+        <v>1307.98367289679</v>
       </c>
       <c r="F33" t="n">
-        <v>2447.8787345863</v>
+        <v>1711.9181532918</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>234.286075551865</v>
+        <v>518.954873768098</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>202.31907090888</v>
+        <v>312.719896778637</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1669.43937350729</v>
+        <v>1326.87393319981</v>
       </c>
       <c r="F34" t="n">
-        <v>2510.86653572477</v>
+        <v>1450.77654287025</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>149.31907090888</v>
+        <v>259.719896778637</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>154.591301292867</v>
+        <v>72.112205470881</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1694.8388619136</v>
+        <v>1072.6163030174</v>
       </c>
       <c r="F35" t="n">
-        <v>2537.5731669538</v>
+        <v>1372.40994545568</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>127.591301292867</v>
+        <v>45.112205470881</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>82.3948708982659</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1350.60324542246</v>
+        <v>1036.26173445086</v>
       </c>
       <c r="F36" t="n">
-        <v>2445.6866964418</v>
+        <v>1313.52579060911</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>81.3948708982659</v>
+        <v>-1</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>28.7000722259397</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1354.99604104618</v>
+        <v>1090.05232651116</v>
       </c>
       <c r="F37" t="n">
-        <v>2389.66596917606</v>
+        <v>1203.8354802918</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>25.7000722259397</v>
+        <v>-3</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1311.43854474073</v>
+        <v>920.264655701263</v>
       </c>
       <c r="F38" t="n">
-        <v>2404.75249095572</v>
+        <v>1168.97449038353</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1676.02747192066</v>
+        <v>1069.47766837771</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.92647093364</v>
+        <v>1213.74673346808</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1804.04902593394</v>
+        <v>1014.98652426558</v>
       </c>
       <c r="F40" t="n">
-        <v>2556.52344125173</v>
+        <v>1510.00072255379</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>37.7599561932516</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1799.1187506537</v>
+        <v>1069.91802451325</v>
       </c>
       <c r="F41" t="n">
-        <v>2553.34539521921</v>
+        <v>1113.49962810412</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>36.7599561932516</v>
+        <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>96.6270132761138</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1610.39811711604</v>
+        <v>863.83036664686</v>
       </c>
       <c r="F42" t="n">
-        <v>2483.10060251836</v>
+        <v>1398.51996504811</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>96.6270132761138</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>55.2265082394282</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1585.4412142356</v>
+        <v>1079.4128563779</v>
       </c>
       <c r="F43" t="n">
-        <v>2516.6019144622</v>
+        <v>1315.36078798044</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>52.2265082394282</v>
+        <v>-3</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>108.718876359413</v>
+        <v>204.976405167536</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1395.72594165013</v>
+        <v>1421.94161835705</v>
       </c>
       <c r="F44" t="n">
-        <v>2417.0179800324</v>
+        <v>1783.90263578742</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>75.7188763594127</v>
+        <v>171.976405167536</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>283.938314467196</v>
+        <v>482.8017282775</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1583.8672338273</v>
+        <v>1839.21255889749</v>
       </c>
       <c r="F45" t="n">
-        <v>2435.99291579021</v>
+        <v>2090.96550275515</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>203.938314467196</v>
+        <v>402.8017282775</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>159.867768240837</v>
+        <v>278.723819326</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1777.35649564347</v>
+        <v>1557.86728391142</v>
       </c>
       <c r="F46" t="n">
-        <v>2469.63342463057</v>
+        <v>1840.87001212578</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>97.867768240837</v>
+        <v>216.723819326</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>85.596675016004</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1645.32363122486</v>
+        <v>1287.37084532915</v>
       </c>
       <c r="F47" t="n">
-        <v>2501.00564248771</v>
+        <v>1589.30899278986</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>53.596675016004</v>
+        <v>-32</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>136.203495033423</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1627.26111226875</v>
+        <v>1406.95131740551</v>
       </c>
       <c r="F48" t="n">
-        <v>2487.43631012662</v>
+        <v>1596.78542702144</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>124.203495033423</v>
+        <v>-12</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>71.002407945673</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1634.11683799854</v>
+        <v>1318.89179989238</v>
       </c>
       <c r="F49" t="n">
-        <v>2515.74040799437</v>
+        <v>1674.32785106851</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>67.002407945673</v>
+        <v>-4</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">JE</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase</t>
+    <t xml:space="preserve">Decrease</t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease</t>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5.59997408961254</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.33116495510871</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.3717862587274</v>
       </c>
       <c r="E2" t="n">
-        <v>155.12229467945</v>
+        <v>12.9364734481288</v>
       </c>
       <c r="F2" t="n">
-        <v>230.379290426085</v>
+        <v>20.3335199144723</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>-3</v>
+        <v>2.59997408961254</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.26209286273733</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.237907181108107</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>243.695998906421</v>
+        <v>3.34112168783469</v>
       </c>
       <c r="F3" t="n">
-        <v>310.083045183076</v>
+        <v>5.27070442517697</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.26209286273733</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.94989549798268</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.580867432096009</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.157641541321208</v>
       </c>
       <c r="E4" t="n">
-        <v>293.863936213126</v>
+        <v>4.8016912349488</v>
       </c>
       <c r="F4" t="n">
-        <v>376.18677725556</v>
+        <v>7.50530314875904</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>-3</v>
+        <v>-1.05010450201732</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.43822428288472</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.323354642123432</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>255.124453648325</v>
+        <v>3.72443264519179</v>
       </c>
       <c r="F5" t="n">
-        <v>335.860783026829</v>
+        <v>5.86406758632182</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>-4</v>
+        <v>-2.56177571711528</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5.19424294833462</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.12314242604731</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.22260020769743</v>
       </c>
       <c r="E6" t="n">
-        <v>246.146876724857</v>
+        <v>12.0959561236983</v>
       </c>
       <c r="F6" t="n">
-        <v>367.418290868376</v>
+        <v>19.0621136237402</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5.19424294833462</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>57.9175757539871</v>
+        <v>31.6313346281932</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.1412492552016</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8.38730861057774</v>
       </c>
       <c r="E7" t="n">
-        <v>342.410430279954</v>
+        <v>81.9947266856738</v>
       </c>
       <c r="F7" t="n">
-        <v>359.65548244151</v>
+        <v>141.694738232268</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>51.9175757539871</v>
+        <v>25.6313346281932</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>225.605601683259</v>
+        <v>151.557248368409</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>54.8522472097153</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33.3869875616973</v>
       </c>
       <c r="E8" t="n">
-        <v>583.418534260475</v>
+        <v>480.244651951796</v>
       </c>
       <c r="F8" t="n">
-        <v>653.58863048968</v>
+        <v>950.806846014486</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>156.605601683259</v>
+        <v>82.5572483684088</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>562.099649618042</v>
+        <v>338.748777353305</v>
       </c>
       <c r="C9" t="n">
-        <v>16.9425936830643</v>
+        <v>111.452884360143</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>65.2582378516128</v>
       </c>
       <c r="E9" t="n">
-        <v>998.840208009582</v>
+        <v>1224.19214982593</v>
       </c>
       <c r="F9" t="n">
-        <v>1165.51979512118</v>
+        <v>2651.00003894908</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +672,10 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>493.099649618042</v>
+        <v>269.748777353305</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>364.852092752191</v>
+        <v>174.574206792087</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>61.9360780999275</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>37.3909785618001</v>
       </c>
       <c r="E10" t="n">
-        <v>811.012918392777</v>
+        <v>568.403699539999</v>
       </c>
       <c r="F10" t="n">
-        <v>968.421685752266</v>
+        <v>1146.15843536462</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,10 +704,10 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>227.852092752191</v>
+        <v>37.574206792087</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>98.1866637524615</v>
+        <v>50.7484745860176</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>20.2345445925525</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>12.7531815177761</v>
       </c>
       <c r="E11" t="n">
-        <v>540.262038297402</v>
+        <v>139.959695464806</v>
       </c>
       <c r="F11" t="n">
-        <v>620.661958508363</v>
+        <v>252.239764952266</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,10 +736,10 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>56.1866637524615</v>
+        <v>8.74847458601757</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>18.4105836342424</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7.76574650224414</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.92904788520708</v>
       </c>
       <c r="E12" t="n">
-        <v>436.391374739338</v>
+        <v>45.9106003436476</v>
       </c>
       <c r="F12" t="n">
-        <v>518.858268340906</v>
+        <v>77.0888877809661</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>-10</v>
+        <v>8.4105836342424</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.7767099759474</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7.08050348047119</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.48189465512503</v>
       </c>
       <c r="E13" t="n">
-        <v>338.792620853051</v>
+        <v>41.6178044938445</v>
       </c>
       <c r="F13" t="n">
-        <v>520.044908245429</v>
+        <v>69.5849515174474</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>-8</v>
+        <v>8.77670997594743</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5.59997408961254</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.26994744058409</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.30819583568843</v>
       </c>
       <c r="E14" t="n">
-        <v>418.061083489331</v>
+        <v>13.2496671642833</v>
       </c>
       <c r="F14" t="n">
-        <v>565.630800953</v>
+        <v>21.1126566032089</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>-4</v>
+        <v>1.59997408961254</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1.26209286273733</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.217818922716547</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>382.501754182843</v>
+        <v>3.42514685235429</v>
       </c>
       <c r="F15" t="n">
-        <v>527.428618491124</v>
+        <v>5.46630012149798</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.26209286273733</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.94989549798268</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.554488246470475</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.129349182978496</v>
       </c>
       <c r="E16" t="n">
-        <v>544.709196712032</v>
+        <v>4.91789188599698</v>
       </c>
       <c r="F16" t="n">
-        <v>762.852701729098</v>
+        <v>7.78040370200732</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.94989549798268</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.43822428288472</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.301800866383912</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>504.918927095556</v>
+        <v>3.81642658658614</v>
       </c>
       <c r="F17" t="n">
-        <v>614.451872817767</v>
+        <v>6.079624855053</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.43822428288472</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>5.19424294833462</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.06671970837703</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.16401740617203</v>
       </c>
       <c r="E18" t="n">
-        <v>612.297127767984</v>
+        <v>12.3852466512159</v>
       </c>
       <c r="F18" t="n">
-        <v>723.856097975474</v>
+        <v>19.7823081685147</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>-2</v>
+        <v>3.19424294833462</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>31.9668969797342</v>
+        <v>31.6313346281932</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>12.834238647393</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.09277261512911</v>
       </c>
       <c r="E19" t="n">
-        <v>669.083018091133</v>
+        <v>84.3042159174668</v>
       </c>
       <c r="F19" t="n">
-        <v>845.174773597756</v>
+        <v>148.256192055034</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>21.9668969797342</v>
+        <v>21.6313346281932</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>218.177427618621</v>
+        <v>151.557248368409</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>53.4199046733926</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>32.1254392100272</v>
       </c>
       <c r="E20" t="n">
-        <v>836.773956760367</v>
+        <v>496.9385199883</v>
       </c>
       <c r="F20" t="n">
-        <v>1008.32205207445</v>
+        <v>1006.49187780989</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,10 +1024,10 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>201.177427618621</v>
+        <v>134.557248368409</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>490.661139970104</v>
+        <v>338.748777353305</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>108.317474180868</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>62.6309927004277</v>
       </c>
       <c r="E21" t="n">
-        <v>1143.1641170027</v>
+        <v>1271.94289347831</v>
       </c>
       <c r="F21" t="n">
-        <v>1220.14038318938</v>
+        <v>2827.64170153701</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,10 +1056,10 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>418.661139970104</v>
+        <v>266.748777353305</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>237.714924941311</v>
+        <v>174.574206792087</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>60.3054991602697</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.969777323484</v>
       </c>
       <c r="E22" t="n">
-        <v>909.812759888747</v>
+        <v>588.489639966487</v>
       </c>
       <c r="F22" t="n">
-        <v>1013.28101609121</v>
+        <v>1214.58420431873</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1088,10 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>174.714924941311</v>
+        <v>111.574206792087</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>50.7484745860176</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>19.7541946938395</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>12.3050138938725</v>
       </c>
       <c r="E23" t="n">
-        <v>590.121966636416</v>
+        <v>144.115873399042</v>
       </c>
       <c r="F23" t="n">
-        <v>756.557791226494</v>
+        <v>264.654952757441</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>-39</v>
+        <v>11.7484745860176</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>18.4105836342424</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>7.58830130606288</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.75512634128897</v>
       </c>
       <c r="E24" t="n">
-        <v>581.013620146256</v>
+        <v>47.1113608310856</v>
       </c>
       <c r="F24" t="n">
-        <v>725.288615517666</v>
+        <v>80.3756546971366</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-14</v>
+        <v>4.4105836342424</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.7767099759474</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.91891746418853</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.32297573119908</v>
       </c>
       <c r="E25" t="n">
-        <v>624.310367329419</v>
+        <v>42.6931043559612</v>
       </c>
       <c r="F25" t="n">
-        <v>853.332685871369</v>
+        <v>72.511187196915</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>-4</v>
+        <v>12.7767099759474</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>5.59997408961254</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.21158406898625</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.24814630260254</v>
       </c>
       <c r="E26" t="n">
-        <v>594.967957768635</v>
+        <v>13.5620792699263</v>
       </c>
       <c r="F26" t="n">
-        <v>870.646138944493</v>
+        <v>21.9017466397321</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>-9</v>
+        <v>-3.40002591038746</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1.26209286273733</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.198618462680161</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>749.693843570301</v>
+        <v>3.50868852028749</v>
       </c>
       <c r="F27" t="n">
-        <v>970.060310316171</v>
+        <v>5.66328485073912</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-1</v>
+        <v>0.262092862737328</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.94989549798268</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.529284875150754</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.102553739641443</v>
       </c>
       <c r="E28" t="n">
-        <v>900.303557607761</v>
+        <v>5.0335229530787</v>
       </c>
       <c r="F28" t="n">
-        <v>1119.01030609829</v>
+        <v>8.05783711517276</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>-2</v>
+        <v>-0.0501045020173159</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.43822428288472</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.281196097802069</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>840.696602380735</v>
+        <v>3.90792516520021</v>
       </c>
       <c r="F29" t="n">
-        <v>959.578892373181</v>
+        <v>6.29681602101369</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.43822428288472</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>5.19424294833462</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2.01288290525901</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.10864173372465</v>
       </c>
       <c r="E30" t="n">
-        <v>820.084389556805</v>
+        <v>12.6738363885111</v>
       </c>
       <c r="F30" t="n">
-        <v>1068.13648693556</v>
+        <v>20.5115741518879</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.19424294833462</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>12.0180736924289</v>
+        <v>31.6313346281932</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>12.5424679993081</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7.81591543947327</v>
       </c>
       <c r="E31" t="n">
-        <v>1006.25978847277</v>
+        <v>86.6227862644664</v>
       </c>
       <c r="F31" t="n">
-        <v>1121.19650033715</v>
+        <v>154.97326833996</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.01807369242885</v>
+        <v>24.6313346281932</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>164.718714616137</v>
+        <v>151.557248368409</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>52.0645648962026</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>30.9466614450831</v>
       </c>
       <c r="E32" t="n">
-        <v>1015.85416766565</v>
+        <v>513.824726633456</v>
       </c>
       <c r="F32" t="n">
-        <v>1249.06268217378</v>
+        <v>1064.26716644016</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>151.718714616137</v>
+        <v>138.557248368409</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>575.954873768098</v>
+        <v>338.748777353305</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>105.357819308442</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>60.1841901118671</v>
       </c>
       <c r="E33" t="n">
-        <v>1307.98367289679</v>
+        <v>1320.47258647112</v>
       </c>
       <c r="F33" t="n">
-        <v>1711.9181532918</v>
+        <v>3012.50535266603</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>518.954873768098</v>
+        <v>281.748777353305</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>312.719896778637</v>
+        <v>174.574206792087</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>58.7626894022933</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.6420267100265</v>
       </c>
       <c r="E34" t="n">
-        <v>1326.87393319981</v>
+        <v>608.824632693717</v>
       </c>
       <c r="F34" t="n">
-        <v>1450.77654287025</v>
+        <v>1285.68118789159</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,10 +1472,10 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>259.719896778637</v>
+        <v>121.574206792087</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>72.112205470881</v>
+        <v>50.7484745860176</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>19.2979511419812</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>11.8841371237306</v>
       </c>
       <c r="E35" t="n">
-        <v>1072.6163030174</v>
+        <v>148.297856396532</v>
       </c>
       <c r="F35" t="n">
-        <v>1372.40994545568</v>
+        <v>277.411933717639</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,10 +1504,10 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>45.112205470881</v>
+        <v>23.7484745860176</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>18.4105836342424</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>7.41928813107446</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.59116988007588</v>
       </c>
       <c r="E36" t="n">
-        <v>1036.26173445086</v>
+        <v>48.3146342366769</v>
       </c>
       <c r="F36" t="n">
-        <v>1313.52579060911</v>
+        <v>83.7283876039696</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
+        <v>17.4105836342424</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.7767099759474</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6.76494988927391</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.17308691988639</v>
       </c>
       <c r="E37" t="n">
-        <v>1090.05232651116</v>
+        <v>43.7703500866386</v>
       </c>
       <c r="F37" t="n">
-        <v>1203.8354802918</v>
+        <v>75.4944738383521</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>-3</v>
+        <v>13.7767099759474</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>5.59997408961254</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2.15583118827479</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.1913106880729</v>
       </c>
       <c r="E38" t="n">
-        <v>920.264655701263</v>
+        <v>13.8739681479586</v>
       </c>
       <c r="F38" t="n">
-        <v>1168.97449038353</v>
+        <v>22.7013411942915</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>-4</v>
+        <v>1.59997408961254</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1.26209286273733</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.180231703651883</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1069.47766837771</v>
+        <v>3.59182299028568</v>
       </c>
       <c r="F39" t="n">
-        <v>1213.74673346808</v>
+        <v>5.86179280942559</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-1</v>
+        <v>0.262092862737328</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.94989549798268</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.505159135296235</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.077120904744276</v>
       </c>
       <c r="E40" t="n">
-        <v>1014.98652426558</v>
+        <v>5.14868614519829</v>
       </c>
       <c r="F40" t="n">
-        <v>1510.00072255379</v>
+        <v>8.33778975782195</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>-3</v>
+        <v>-1.05010450201732</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.43822428288472</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.261461650469558</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1069.91802451325</v>
+        <v>3.99900958335169</v>
       </c>
       <c r="F41" t="n">
-        <v>1113.49962810412</v>
+        <v>6.51578607664241</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-1</v>
+        <v>0.43822428288472</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>5.19424294833462</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1.96141490423216</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.0561818881675</v>
       </c>
       <c r="E42" t="n">
-        <v>863.83036664686</v>
+        <v>12.9619556359285</v>
       </c>
       <c r="F42" t="n">
-        <v>1398.51996504811</v>
+        <v>21.2504036494608</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.19424294833462</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>31.6313346281932</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>12.2646177461395</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>7.55505604628561</v>
       </c>
       <c r="E43" t="n">
-        <v>1079.4128563779</v>
+        <v>88.9520145699948</v>
       </c>
       <c r="F43" t="n">
-        <v>1315.36078798044</v>
+        <v>161.851936551027</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>-3</v>
+        <v>28.6313346281932</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>204.976405167536</v>
+        <v>151.557248368409</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>50.7793237392144</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>29.8423912300412</v>
       </c>
       <c r="E44" t="n">
-        <v>1421.94161835705</v>
+        <v>530.914358667499</v>
       </c>
       <c r="F44" t="n">
-        <v>1783.90263578742</v>
+        <v>1124.22009595066</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>171.976405167536</v>
+        <v>118.557248368409</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>482.8017282775</v>
+        <v>338.748777353305</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>102.557859908116</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>57.8993444638835</v>
       </c>
       <c r="E45" t="n">
-        <v>1839.21255889749</v>
+        <v>1369.81538659688</v>
       </c>
       <c r="F45" t="n">
-        <v>2090.96550275515</v>
+        <v>3205.98381824712</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>402.8017282775</v>
+        <v>258.748777353305</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>278.723819326</v>
+        <v>174.574206792087</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.2998060629057</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>33.3984147721792</v>
       </c>
       <c r="E46" t="n">
-        <v>1557.86728391142</v>
+        <v>629.421936949325</v>
       </c>
       <c r="F46" t="n">
-        <v>1840.87001212578</v>
+        <v>1359.56297375663</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>216.723819326</v>
+        <v>112.574206792087</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>50.7484745860176</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>18.8637346802796</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>11.4879536756266</v>
       </c>
       <c r="E47" t="n">
-        <v>1287.37084532915</v>
+        <v>152.508315839825</v>
       </c>
       <c r="F47" t="n">
-        <v>1589.30899278986</v>
+        <v>290.523552419541</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>-32</v>
+        <v>18.7484745860176</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>18.4105836342424</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>7.25799858052399</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>4.43626259178473</v>
       </c>
       <c r="E48" t="n">
-        <v>1406.95131740551</v>
+        <v>49.5212306842523</v>
       </c>
       <c r="F48" t="n">
-        <v>1596.78542702144</v>
+        <v>87.1496525402209</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>-12</v>
+        <v>6.4105836342424</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>16.7767099759474</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>6.61796428571103</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>4.03140339441457</v>
       </c>
       <c r="E49" t="n">
-        <v>1318.89179989238</v>
+        <v>44.8502651247655</v>
       </c>
       <c r="F49" t="n">
-        <v>1674.32785106851</v>
+        <v>78.5370411284668</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>-4</v>
+        <v>12.7767099759474</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>5.59997408961254</v>
+        <v>6.61339403085633</v>
       </c>
       <c r="C2" t="n">
-        <v>2.33116495510871</v>
+        <v>1.71384632632436</v>
       </c>
       <c r="D2" t="n">
-        <v>1.3717862587274</v>
+        <v>0.935400721088749</v>
       </c>
       <c r="E2" t="n">
-        <v>12.9364734481288</v>
+        <v>25.7547460729481</v>
       </c>
       <c r="F2" t="n">
-        <v>20.3335199144723</v>
+        <v>51.8581912938957</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.59997408961254</v>
+        <v>3.61339403085633</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1.26209286273733</v>
+        <v>1.53924752541824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237907181108107</v>
+        <v>0.372758635171077</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.212583929330075</v>
       </c>
       <c r="E3" t="n">
-        <v>3.34112168783469</v>
+        <v>8.02461657638883</v>
       </c>
       <c r="F3" t="n">
-        <v>5.27070442517697</v>
+        <v>14.690560017861</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.26209286273733</v>
+        <v>1.53924752541824</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1.94989549798268</v>
+        <v>2.42068284632312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.580867432096009</v>
+        <v>0.815138299490079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.157641541321208</v>
+        <v>0.434828833843475</v>
       </c>
       <c r="E4" t="n">
-        <v>4.8016912349488</v>
+        <v>8.82953447217458</v>
       </c>
       <c r="F4" t="n">
-        <v>7.50530314875904</v>
+        <v>15.0548393590242</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.05010450201732</v>
+        <v>-0.579317153676882</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1.43822428288472</v>
+        <v>2.72859039055575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.323354642123432</v>
+        <v>0.552248972702635</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.332762486233109</v>
       </c>
       <c r="E5" t="n">
-        <v>3.72443264519179</v>
+        <v>14.526428013088</v>
       </c>
       <c r="F5" t="n">
-        <v>5.86406758632182</v>
+        <v>29.1425376584722</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.56177571711528</v>
+        <v>-1.27140960944425</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5.19424294833462</v>
+        <v>4.44662128559198</v>
       </c>
       <c r="C6" t="n">
-        <v>2.12314242604731</v>
+        <v>1.1714321483582</v>
       </c>
       <c r="D6" t="n">
-        <v>1.22260020769743</v>
+        <v>0.676263424827495</v>
       </c>
       <c r="E6" t="n">
-        <v>12.0959561236983</v>
+        <v>15.0770033838258</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0621136237402</v>
+        <v>28.246119040164</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5.19424294833462</v>
+        <v>4.44662128559198</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>31.6313346281932</v>
+        <v>21.5610129694072</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1412492552016</v>
+        <v>3.0646540763626</v>
       </c>
       <c r="D7" t="n">
-        <v>8.38730861057774</v>
+        <v>1.67759538443593</v>
       </c>
       <c r="E7" t="n">
-        <v>81.9947266856738</v>
+        <v>98.2266998395015</v>
       </c>
       <c r="F7" t="n">
-        <v>141.694738232268</v>
+        <v>220.14217664511</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>25.6313346281932</v>
+        <v>15.5610129694072</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>151.557248368409</v>
+        <v>125.596975177098</v>
       </c>
       <c r="C8" t="n">
-        <v>54.8522472097153</v>
+        <v>13.0489842657416</v>
       </c>
       <c r="D8" t="n">
-        <v>33.3869875616973</v>
+        <v>6.30756629395682</v>
       </c>
       <c r="E8" t="n">
-        <v>480.244651951796</v>
+        <v>768.650592561731</v>
       </c>
       <c r="F8" t="n">
-        <v>950.806846014486</v>
+        <v>2198.81701710409</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>82.5572483684088</v>
+        <v>56.5969751770983</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>338.748777353305</v>
+        <v>273.749845313821</v>
       </c>
       <c r="C9" t="n">
-        <v>111.452884360143</v>
+        <v>30.0245062476217</v>
       </c>
       <c r="D9" t="n">
-        <v>65.2582378516128</v>
+        <v>14.5697391733797</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.19214982593</v>
+        <v>2019.64011076494</v>
       </c>
       <c r="F9" t="n">
-        <v>2651.00003894908</v>
+        <v>6592.14737607</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>269.748777353305</v>
+        <v>204.749845313821</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>174.574206792087</v>
+        <v>157.978974079823</v>
       </c>
       <c r="C10" t="n">
-        <v>61.9360780999275</v>
+        <v>24.7298303797906</v>
       </c>
       <c r="D10" t="n">
-        <v>37.3909785618001</v>
+        <v>11.3144969223489</v>
       </c>
       <c r="E10" t="n">
-        <v>568.403699539999</v>
+        <v>972.339310577595</v>
       </c>
       <c r="F10" t="n">
-        <v>1146.15843536462</v>
+        <v>2867.87347853248</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>37.574206792087</v>
+        <v>20.9789740798229</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>50.7484745860176</v>
+        <v>51.0001191234924</v>
       </c>
       <c r="C11" t="n">
-        <v>20.2345445925525</v>
+        <v>9.78737362753133</v>
       </c>
       <c r="D11" t="n">
-        <v>12.7531815177761</v>
+        <v>5.17704003076194</v>
       </c>
       <c r="E11" t="n">
-        <v>139.959695464806</v>
+        <v>256.907739872795</v>
       </c>
       <c r="F11" t="n">
-        <v>252.239764952266</v>
+        <v>1034.83477979007</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>8.74847458601757</v>
+        <v>9.00011912349243</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4105836342424</v>
+        <v>14.7039920128763</v>
       </c>
       <c r="C12" t="n">
-        <v>7.76574650224414</v>
+        <v>2.13910060301132</v>
       </c>
       <c r="D12" t="n">
-        <v>4.92904788520708</v>
+        <v>1.19998487173094</v>
       </c>
       <c r="E12" t="n">
-        <v>45.9106003436476</v>
+        <v>62.4445051708795</v>
       </c>
       <c r="F12" t="n">
-        <v>77.0888877809661</v>
+        <v>131.001902391952</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>8.4105836342424</v>
+        <v>4.70399201287634</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>16.7767099759474</v>
+        <v>13.4071591749619</v>
       </c>
       <c r="C13" t="n">
-        <v>7.08050348047119</v>
+        <v>2.67087669452912</v>
       </c>
       <c r="D13" t="n">
-        <v>4.48189465512503</v>
+        <v>1.48357795351629</v>
       </c>
       <c r="E13" t="n">
-        <v>41.6178044938445</v>
+        <v>52.5553612907009</v>
       </c>
       <c r="F13" t="n">
-        <v>69.5849515174474</v>
+        <v>110.9433386409</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>8.77670997594743</v>
+        <v>5.40715917496191</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>5.59997408961254</v>
+        <v>6.04577558998583</v>
       </c>
       <c r="C14" t="n">
-        <v>2.26994744058409</v>
+        <v>1.09401856097545</v>
       </c>
       <c r="D14" t="n">
-        <v>1.30819583568843</v>
+        <v>0.591108601445739</v>
       </c>
       <c r="E14" t="n">
-        <v>13.2496671642833</v>
+        <v>24.7313709130127</v>
       </c>
       <c r="F14" t="n">
-        <v>21.1126566032089</v>
+        <v>50.6005724446668</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.59997408961254</v>
+        <v>2.04577558998583</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1.26209286273733</v>
+        <v>1.62292073304155</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217818922716547</v>
+        <v>0.34173902786974</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.18988574898875</v>
       </c>
       <c r="E15" t="n">
-        <v>3.42514685235429</v>
+        <v>10.6000074624961</v>
       </c>
       <c r="F15" t="n">
-        <v>5.46630012149798</v>
+        <v>21.3597192738367</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.26209286273733</v>
+        <v>1.62292073304155</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1.94989549798268</v>
+        <v>2.43902170556623</v>
       </c>
       <c r="C16" t="n">
-        <v>0.554488246470475</v>
+        <v>0.731120047637031</v>
       </c>
       <c r="D16" t="n">
-        <v>0.129349182978496</v>
+        <v>0.440554484730014</v>
       </c>
       <c r="E16" t="n">
-        <v>4.91789188599698</v>
+        <v>11.2997721703474</v>
       </c>
       <c r="F16" t="n">
-        <v>7.78040370200732</v>
+        <v>21.3150661704143</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.94989549798268</v>
+        <v>2.43902170556623</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1.43822428288472</v>
+        <v>2.52382018049095</v>
       </c>
       <c r="C17" t="n">
-        <v>0.301800866383912</v>
+        <v>0.482897148267451</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.288536235127918</v>
       </c>
       <c r="E17" t="n">
-        <v>3.81642658658614</v>
+        <v>14.5166187509783</v>
       </c>
       <c r="F17" t="n">
-        <v>6.079624855053</v>
+        <v>35.6869458469313</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.43822428288472</v>
+        <v>2.52382018049095</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5.19424294833462</v>
+        <v>4.25684094189626</v>
       </c>
       <c r="C18" t="n">
-        <v>2.06671970837703</v>
+        <v>0.981655983715411</v>
       </c>
       <c r="D18" t="n">
-        <v>1.16401740617203</v>
+        <v>0.489218228380278</v>
       </c>
       <c r="E18" t="n">
-        <v>12.3852466512159</v>
+        <v>13.6222248831502</v>
       </c>
       <c r="F18" t="n">
-        <v>19.7823081685147</v>
+        <v>28.2079069945859</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.19424294833462</v>
+        <v>2.25684094189626</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>31.6313346281932</v>
+        <v>19.179806796231</v>
       </c>
       <c r="C19" t="n">
-        <v>12.834238647393</v>
+        <v>1.75802182797102</v>
       </c>
       <c r="D19" t="n">
-        <v>8.09277261512911</v>
+        <v>0.890876647434352</v>
       </c>
       <c r="E19" t="n">
-        <v>84.3042159174668</v>
+        <v>92.6280768794243</v>
       </c>
       <c r="F19" t="n">
-        <v>148.256192055034</v>
+        <v>213.865466008142</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>21.6313346281932</v>
+        <v>9.17980679623097</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>151.557248368409</v>
+        <v>106.750522498635</v>
       </c>
       <c r="C20" t="n">
-        <v>53.4199046733926</v>
+        <v>4.31595614090595</v>
       </c>
       <c r="D20" t="n">
-        <v>32.1254392100272</v>
+        <v>2.13476502923437</v>
       </c>
       <c r="E20" t="n">
-        <v>496.9385199883</v>
+        <v>724.209356355475</v>
       </c>
       <c r="F20" t="n">
-        <v>1006.49187780989</v>
+        <v>2117.5998374747</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>134.557248368409</v>
+        <v>89.7505224986348</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>338.748777353305</v>
+        <v>240.552039084227</v>
       </c>
       <c r="C21" t="n">
-        <v>108.317474180868</v>
+        <v>11.1450217297426</v>
       </c>
       <c r="D21" t="n">
-        <v>62.6309927004277</v>
+        <v>4.58824055514309</v>
       </c>
       <c r="E21" t="n">
-        <v>1271.94289347831</v>
+        <v>1889.68824444474</v>
       </c>
       <c r="F21" t="n">
-        <v>2827.64170153701</v>
+        <v>6316.72911485575</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>266.748777353305</v>
+        <v>168.552039084227</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>174.574206792087</v>
+        <v>145.09923233357</v>
       </c>
       <c r="C22" t="n">
-        <v>60.3054991602697</v>
+        <v>12.0533161045344</v>
       </c>
       <c r="D22" t="n">
-        <v>35.969777323484</v>
+        <v>5.03637241486694</v>
       </c>
       <c r="E22" t="n">
-        <v>588.489639966487</v>
+        <v>969.818121777602</v>
       </c>
       <c r="F22" t="n">
-        <v>1214.58420431873</v>
+        <v>3083.12274191528</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>111.574206792087</v>
+        <v>82.0992323335703</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>50.7484745860176</v>
+        <v>49.2217327009639</v>
       </c>
       <c r="C23" t="n">
-        <v>19.7541946938395</v>
+        <v>7.14278759551399</v>
       </c>
       <c r="D23" t="n">
-        <v>12.3050138938725</v>
+        <v>2.24365412714104</v>
       </c>
       <c r="E23" t="n">
-        <v>144.115873399042</v>
+        <v>642.333375213425</v>
       </c>
       <c r="F23" t="n">
-        <v>264.654952757441</v>
+        <v>2534.94540742405</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>11.7484745860176</v>
+        <v>10.2217327009639</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>18.4105836342424</v>
+        <v>13.402162519522</v>
       </c>
       <c r="C24" t="n">
-        <v>7.58830130606288</v>
+        <v>1.47237125653532</v>
       </c>
       <c r="D24" t="n">
-        <v>4.75512634128897</v>
+        <v>0.503537323851039</v>
       </c>
       <c r="E24" t="n">
-        <v>47.1113608310856</v>
+        <v>97.7290696513368</v>
       </c>
       <c r="F24" t="n">
-        <v>80.3756546971366</v>
+        <v>537.68325547293</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4105836342424</v>
+        <v>-0.597837480477974</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>16.7767099759474</v>
+        <v>12.0909540809456</v>
       </c>
       <c r="C25" t="n">
-        <v>6.91891746418853</v>
+        <v>1.72223693293004</v>
       </c>
       <c r="D25" t="n">
-        <v>4.32297573119908</v>
+        <v>0.930168218638825</v>
       </c>
       <c r="E25" t="n">
-        <v>42.6931043559612</v>
+        <v>49.6664732142419</v>
       </c>
       <c r="F25" t="n">
-        <v>72.511187196915</v>
+        <v>165.655916322209</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>12.7767099759474</v>
+        <v>8.0909540809456</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>5.59997408961254</v>
+        <v>5.6997444904522</v>
       </c>
       <c r="C26" t="n">
-        <v>2.21158406898625</v>
+        <v>0.913003237728339</v>
       </c>
       <c r="D26" t="n">
-        <v>1.24814630260254</v>
+        <v>0.393746166523519</v>
       </c>
       <c r="E26" t="n">
-        <v>13.5620792699263</v>
+        <v>23.7328525940006</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9017466397321</v>
+        <v>67.5647409664475</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.40002591038746</v>
+        <v>-3.3002555095478</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1.26209286273733</v>
+        <v>1.65009420745574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.198618462680161</v>
+        <v>0.313189897416424</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.16921703356528</v>
       </c>
       <c r="E27" t="n">
-        <v>3.50868852028749</v>
+        <v>13.1313423908524</v>
       </c>
       <c r="F27" t="n">
-        <v>5.66328485073912</v>
+        <v>29.950827594058</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.262092862737328</v>
+        <v>0.650094207455735</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1.94989549798268</v>
+        <v>2.39360623182382</v>
       </c>
       <c r="C28" t="n">
-        <v>0.529284875150754</v>
+        <v>0.638145684924395</v>
       </c>
       <c r="D28" t="n">
-        <v>0.102553739641443</v>
+        <v>0.385724239402212</v>
       </c>
       <c r="E28" t="n">
-        <v>5.0335229530787</v>
+        <v>11.7176337247246</v>
       </c>
       <c r="F28" t="n">
-        <v>8.05783711517276</v>
+        <v>22.4464979989067</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0501045020173159</v>
+        <v>0.393606231823819</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1.43822428288472</v>
+        <v>2.39792134067767</v>
       </c>
       <c r="C29" t="n">
-        <v>0.281196097802069</v>
+        <v>0.419940569894246</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.247603854009502</v>
       </c>
       <c r="E29" t="n">
-        <v>3.90792516520021</v>
+        <v>17.0347056553286</v>
       </c>
       <c r="F29" t="n">
-        <v>6.29681602101369</v>
+        <v>36.5104241355259</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.43822428288472</v>
+        <v>2.39792134067767</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5.19424294833462</v>
+        <v>4.0778551198391</v>
       </c>
       <c r="C30" t="n">
-        <v>2.01288290525901</v>
+        <v>1.0729176389548</v>
       </c>
       <c r="D30" t="n">
-        <v>1.10864173372465</v>
+        <v>0.501455385180562</v>
       </c>
       <c r="E30" t="n">
-        <v>12.6738363885111</v>
+        <v>13.5115994945804</v>
       </c>
       <c r="F30" t="n">
-        <v>20.5115741518879</v>
+        <v>34.0758130591032</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.19424294833462</v>
+        <v>4.0778551198391</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>31.6313346281932</v>
+        <v>17.5368831800512</v>
       </c>
       <c r="C31" t="n">
-        <v>12.5424679993081</v>
+        <v>1.42454852203846</v>
       </c>
       <c r="D31" t="n">
-        <v>7.81591543947327</v>
+        <v>0.688705847681886</v>
       </c>
       <c r="E31" t="n">
-        <v>86.6227862644664</v>
+        <v>88.306501050473</v>
       </c>
       <c r="F31" t="n">
-        <v>154.97326833996</v>
+        <v>207.44425806008</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>24.6313346281932</v>
+        <v>10.5368831800512</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>151.557248368409</v>
+        <v>94.3481199203058</v>
       </c>
       <c r="C32" t="n">
-        <v>52.0645648962026</v>
+        <v>2.39942201414265</v>
       </c>
       <c r="D32" t="n">
-        <v>30.9466614450831</v>
+        <v>1.26198826247827</v>
       </c>
       <c r="E32" t="n">
-        <v>513.824726633456</v>
+        <v>681.768118514751</v>
       </c>
       <c r="F32" t="n">
-        <v>1064.26716644016</v>
+        <v>2035.33630101719</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>138.557248368409</v>
+        <v>81.3481199203058</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>338.748777353305</v>
+        <v>213.412200077051</v>
       </c>
       <c r="C33" t="n">
-        <v>105.357819308442</v>
+        <v>4.75641585458975</v>
       </c>
       <c r="D33" t="n">
-        <v>60.1841901118671</v>
+        <v>1.98792327830748</v>
       </c>
       <c r="E33" t="n">
-        <v>1320.47258647112</v>
+        <v>1766.54616836627</v>
       </c>
       <c r="F33" t="n">
-        <v>3012.50535266603</v>
+        <v>6039.36283020237</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>281.748777353305</v>
+        <v>156.412200077051</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>174.574206792087</v>
+        <v>131.446075449515</v>
       </c>
       <c r="C34" t="n">
-        <v>58.7626894022933</v>
+        <v>6.71441155522144</v>
       </c>
       <c r="D34" t="n">
-        <v>34.6420267100265</v>
+        <v>2.48742097344252</v>
       </c>
       <c r="E34" t="n">
-        <v>608.824632693717</v>
+        <v>979.130527688672</v>
       </c>
       <c r="F34" t="n">
-        <v>1285.68118789159</v>
+        <v>4229.35570659628</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>121.574206792087</v>
+        <v>78.4460754495154</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>50.7484745860176</v>
+        <v>46.6536933379487</v>
       </c>
       <c r="C35" t="n">
-        <v>19.2979511419812</v>
+        <v>4.36788628278593</v>
       </c>
       <c r="D35" t="n">
-        <v>11.8841371237306</v>
+        <v>1.49914787964616</v>
       </c>
       <c r="E35" t="n">
-        <v>148.297856396532</v>
+        <v>809.775280323818</v>
       </c>
       <c r="F35" t="n">
-        <v>277.411933717639</v>
+        <v>4777.6702048788</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>23.7484745860176</v>
+        <v>19.6536933379487</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>18.4105836342424</v>
+        <v>12.3225060397798</v>
       </c>
       <c r="C36" t="n">
-        <v>7.41928813107446</v>
+        <v>1.24593167612044</v>
       </c>
       <c r="D36" t="n">
-        <v>4.59116988007588</v>
+        <v>0.372217547701713</v>
       </c>
       <c r="E36" t="n">
-        <v>48.3146342366769</v>
+        <v>268.039687132664</v>
       </c>
       <c r="F36" t="n">
-        <v>83.7283876039696</v>
+        <v>1101.99130829413</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>17.4105836342424</v>
+        <v>11.3225060397798</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>16.7767099759474</v>
+        <v>11.1050299655315</v>
       </c>
       <c r="C37" t="n">
-        <v>6.76494988927391</v>
+        <v>1.27423473434756</v>
       </c>
       <c r="D37" t="n">
-        <v>4.17308691988639</v>
+        <v>0.549206696041159</v>
       </c>
       <c r="E37" t="n">
-        <v>43.7703500866386</v>
+        <v>59.9241721993283</v>
       </c>
       <c r="F37" t="n">
-        <v>75.4944738383521</v>
+        <v>432.165417577036</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>13.7767099759474</v>
+        <v>8.10502996553152</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>5.59997408961254</v>
+        <v>5.45846069159718</v>
       </c>
       <c r="C38" t="n">
-        <v>2.15583118827479</v>
+        <v>0.891907986448042</v>
       </c>
       <c r="D38" t="n">
-        <v>1.1913106880729</v>
+        <v>0.416515218708507</v>
       </c>
       <c r="E38" t="n">
-        <v>13.8739681479586</v>
+        <v>23.8729886508541</v>
       </c>
       <c r="F38" t="n">
-        <v>22.7013411942915</v>
+        <v>111.696434443747</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>1.59997408961254</v>
+        <v>1.45846069159718</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1.26209286273733</v>
+        <v>1.64001137138711</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180231703651883</v>
+        <v>0.286870901848305</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.150355146974437</v>
       </c>
       <c r="E39" t="n">
-        <v>3.59182299028568</v>
+        <v>15.0937948714504</v>
       </c>
       <c r="F39" t="n">
-        <v>5.86179280942559</v>
+        <v>33.8474482546117</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.262092862737328</v>
+        <v>0.640011371387111</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1.94989549798268</v>
+        <v>2.33059486625546</v>
       </c>
       <c r="C40" t="n">
-        <v>0.505159135296235</v>
+        <v>0.552956021993513</v>
       </c>
       <c r="D40" t="n">
-        <v>0.077120904744276</v>
+        <v>0.330024661116695</v>
       </c>
       <c r="E40" t="n">
-        <v>5.14868614519829</v>
+        <v>12.8461928629345</v>
       </c>
       <c r="F40" t="n">
-        <v>8.33778975782195</v>
+        <v>26.0098536209067</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.05010450201732</v>
+        <v>-0.66940513374454</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1.43822428288472</v>
+        <v>2.3089810558588</v>
       </c>
       <c r="C41" t="n">
-        <v>0.261461650469558</v>
+        <v>0.361895627584684</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.208902342815684</v>
       </c>
       <c r="E41" t="n">
-        <v>3.99900958335169</v>
+        <v>15.5195118945883</v>
       </c>
       <c r="F41" t="n">
-        <v>6.51578607664241</v>
+        <v>51.2074960803895</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.43822428288472</v>
+        <v>1.3089810558588</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5.19424294833462</v>
+        <v>3.91001799842678</v>
       </c>
       <c r="C42" t="n">
-        <v>1.96141490423216</v>
+        <v>1.09091211148444</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0561818881675</v>
+        <v>0.528964959742493</v>
       </c>
       <c r="E42" t="n">
-        <v>12.9619556359285</v>
+        <v>13.6768363037465</v>
       </c>
       <c r="F42" t="n">
-        <v>21.2504036494608</v>
+        <v>29.2622644187955</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.19424294833462</v>
+        <v>3.91001799842678</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>31.6313346281932</v>
+        <v>16.2719020176282</v>
       </c>
       <c r="C43" t="n">
-        <v>12.2646177461395</v>
+        <v>1.36819185675874</v>
       </c>
       <c r="D43" t="n">
-        <v>7.55505604628561</v>
+        <v>0.656037750783199</v>
       </c>
       <c r="E43" t="n">
-        <v>88.9520145699948</v>
+        <v>84.1320743576588</v>
       </c>
       <c r="F43" t="n">
-        <v>161.851936551027</v>
+        <v>200.929782348136</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>28.6313346281932</v>
+        <v>13.2719020176282</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>151.557248368409</v>
+        <v>85.8339067379157</v>
       </c>
       <c r="C44" t="n">
-        <v>50.7793237392144</v>
+        <v>1.80486250515511</v>
       </c>
       <c r="D44" t="n">
-        <v>29.8423912300412</v>
+        <v>0.891986956058679</v>
       </c>
       <c r="E44" t="n">
-        <v>530.914358667499</v>
+        <v>642.299905529382</v>
       </c>
       <c r="F44" t="n">
-        <v>1124.22009595066</v>
+        <v>1952.74230584275</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>118.557248368409</v>
+        <v>52.8339067379157</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>338.748777353305</v>
+        <v>190.803056315349</v>
       </c>
       <c r="C45" t="n">
-        <v>102.557859908116</v>
+        <v>2.89456086123589</v>
       </c>
       <c r="D45" t="n">
-        <v>57.8993444638835</v>
+        <v>1.32896278732901</v>
       </c>
       <c r="E45" t="n">
-        <v>1369.81538659688</v>
+        <v>1719.43553183778</v>
       </c>
       <c r="F45" t="n">
-        <v>3205.98381824712</v>
+        <v>5762.54948247656</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>258.748777353305</v>
+        <v>110.803056315349</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>174.574206792087</v>
+        <v>118.194740534741</v>
       </c>
       <c r="C46" t="n">
-        <v>57.2998060629057</v>
+        <v>3.81738017557257</v>
       </c>
       <c r="D46" t="n">
-        <v>33.3984147721792</v>
+        <v>1.40758869465625</v>
       </c>
       <c r="E46" t="n">
-        <v>629.421936949325</v>
+        <v>969.651391951747</v>
       </c>
       <c r="F46" t="n">
-        <v>1359.56297375663</v>
+        <v>4008.2417794671</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>112.574206792087</v>
+        <v>56.194740534741</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>50.7484745860176</v>
+        <v>42.9089483472547</v>
       </c>
       <c r="C47" t="n">
-        <v>18.8637346802796</v>
+        <v>3.47438097015093</v>
       </c>
       <c r="D47" t="n">
-        <v>11.4879536756266</v>
+        <v>1.2611293282039</v>
       </c>
       <c r="E47" t="n">
-        <v>152.508315839825</v>
+        <v>999.590100033081</v>
       </c>
       <c r="F47" t="n">
-        <v>290.523552419541</v>
+        <v>3526.58492230075</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>18.7484745860176</v>
+        <v>10.9089483472547</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>18.4105836342424</v>
+        <v>11.3941267956448</v>
       </c>
       <c r="C48" t="n">
-        <v>7.25799858052399</v>
+        <v>1.27215907253003</v>
       </c>
       <c r="D48" t="n">
-        <v>4.43626259178473</v>
+        <v>0.423909226153399</v>
       </c>
       <c r="E48" t="n">
-        <v>49.5212306842523</v>
+        <v>384.624038843627</v>
       </c>
       <c r="F48" t="n">
-        <v>87.1496525402209</v>
+        <v>1878.84754389759</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>6.4105836342424</v>
+        <v>-0.60587320435519</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>16.7767099759474</v>
+        <v>10.3951075335447</v>
       </c>
       <c r="C49" t="n">
-        <v>6.61796428571103</v>
+        <v>1.24965742686655</v>
       </c>
       <c r="D49" t="n">
-        <v>4.03140339441457</v>
+        <v>0.467758899440549</v>
       </c>
       <c r="E49" t="n">
-        <v>44.8502651247655</v>
+        <v>138.525814502984</v>
       </c>
       <c r="F49" t="n">
-        <v>78.5370411284668</v>
+        <v>885.922915122015</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>12.7767099759474</v>
+        <v>6.39510753354473</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/JE.xlsx
+++ b/outcome/appendix/forecast/JE.xlsx
@@ -427,13 +427,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>6.61339403085633</v>
+        <v>6.66250749374146</v>
       </c>
       <c r="C2" t="n">
-        <v>1.71384632632436</v>
+        <v>1.76906389731537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.935400721088749</v>
+        <v>0.96170599535778</v>
       </c>
       <c r="E2" t="n">
         <v>25.7547460729481</v>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.61339403085633</v>
+        <v>3.66250749374146</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1.53924752541824</v>
+        <v>1.58846376328979</v>
       </c>
       <c r="C3" t="n">
         <v>0.372758635171077</v>
@@ -468,10 +468,10 @@
         <v>0.212583929330075</v>
       </c>
       <c r="E3" t="n">
-        <v>8.02461657638883</v>
+        <v>8.16701083035635</v>
       </c>
       <c r="F3" t="n">
-        <v>14.690560017861</v>
+        <v>14.8167721498363</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.53924752541824</v>
+        <v>1.58846376328979</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2.42068284632312</v>
+        <v>2.36988938610457</v>
       </c>
       <c r="C4" t="n">
         <v>0.815138299490079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.434828833843475</v>
+        <v>0.441591867678531</v>
       </c>
       <c r="E4" t="n">
-        <v>8.82953447217458</v>
+        <v>8.4085993483013</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0548393590242</v>
+        <v>13.7841235172095</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.579317153676882</v>
+        <v>-0.630110613895432</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2.72859039055575</v>
+        <v>2.74826721932213</v>
       </c>
       <c r="C5" t="n">
         <v>0.552248972702635</v>
@@ -532,10 +532,10 @@
         <v>0.332762486233109</v>
       </c>
       <c r="E5" t="n">
-        <v>14.526428013088</v>
+        <v>14.0112846343969</v>
       </c>
       <c r="F5" t="n">
-        <v>29.1425376584722</v>
+        <v>28.9519540635226</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.27140960944425</v>
+        <v>-1.25173278067787</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4.44662128559198</v>
+        <v>4.49774878103156</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1714321483582</v>
+        <v>1.20901257096149</v>
       </c>
       <c r="D6" t="n">
-        <v>0.676263424827495</v>
+        <v>0.708512463542788</v>
       </c>
       <c r="E6" t="n">
         <v>15.0770033838258</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.44662128559198</v>
+        <v>4.49774878103156</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,13 +587,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5610129694072</v>
+        <v>21.6312823228682</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0646540763626</v>
+        <v>3.01984371100018</v>
       </c>
       <c r="D7" t="n">
-        <v>1.67759538443593</v>
+        <v>1.6813934317748</v>
       </c>
       <c r="E7" t="n">
         <v>98.2266998395015</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>15.5610129694072</v>
+        <v>15.6312823228682</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,13 +619,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>125.596975177098</v>
+        <v>126.658815983117</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0489842657416</v>
+        <v>13.0421700823995</v>
       </c>
       <c r="D8" t="n">
-        <v>6.30756629395682</v>
+        <v>5.9181619613134</v>
       </c>
       <c r="E8" t="n">
         <v>768.650592561731</v>
@@ -640,7 +640,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>56.5969751770983</v>
+        <v>57.6588159831166</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,13 +651,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>273.749845313821</v>
+        <v>273.376318624738</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0245062476217</v>
+        <v>29.7794273734614</v>
       </c>
       <c r="D9" t="n">
-        <v>14.5697391733797</v>
+        <v>14.7627610042268</v>
       </c>
       <c r="E9" t="n">
         <v>2019.64011076494</v>
@@ -672,7 +672,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>204.749845313821</v>
+        <v>204.376318624738</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,13 +683,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>157.978974079823</v>
+        <v>156.841991135017</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7298303797906</v>
+        <v>23.842544515427</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3144969223489</v>
+        <v>10.9318220498921</v>
       </c>
       <c r="E10" t="n">
         <v>972.339310577595</v>
@@ -704,7 +704,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>20.9789740798229</v>
+        <v>19.8419911350173</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>51.0001191234924</v>
+        <v>50.2497369891864</v>
       </c>
       <c r="C11" t="n">
-        <v>9.78737362753133</v>
+        <v>9.38459727026473</v>
       </c>
       <c r="D11" t="n">
-        <v>5.17704003076194</v>
+        <v>5.29300640975775</v>
       </c>
       <c r="E11" t="n">
-        <v>256.907739872795</v>
+        <v>256.700705213884</v>
       </c>
       <c r="F11" t="n">
-        <v>1034.83477979007</v>
+        <v>1071.50449785233</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>9.00011912349243</v>
+        <v>8.24973698918642</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,13 +747,13 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7039920128763</v>
+        <v>14.6401000753397</v>
       </c>
       <c r="C12" t="n">
-        <v>2.13910060301132</v>
+        <v>2.08760937265144</v>
       </c>
       <c r="D12" t="n">
-        <v>1.19998487173094</v>
+        <v>1.18503664008385</v>
       </c>
       <c r="E12" t="n">
         <v>62.4445051708795</v>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>4.70399201287634</v>
+        <v>4.6401000753397</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,13 +779,13 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>13.4071591749619</v>
+        <v>13.4665560660487</v>
       </c>
       <c r="C13" t="n">
-        <v>2.67087669452912</v>
+        <v>2.7539174882069</v>
       </c>
       <c r="D13" t="n">
-        <v>1.48357795351629</v>
+        <v>1.4861405811425</v>
       </c>
       <c r="E13" t="n">
         <v>52.5553612907009</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.40715917496191</v>
+        <v>5.46655606604865</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,13 +811,13 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>6.04577558998583</v>
+        <v>6.07652245921715</v>
       </c>
       <c r="C14" t="n">
-        <v>1.09401856097545</v>
+        <v>1.13011053953625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.591108601445739</v>
+        <v>0.624567652232813</v>
       </c>
       <c r="E14" t="n">
         <v>24.7313709130127</v>
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.04577558998583</v>
+        <v>2.07652245921715</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1.62292073304155</v>
+        <v>1.70050439459169</v>
       </c>
       <c r="C15" t="n">
         <v>0.34173902786974</v>
@@ -852,10 +852,10 @@
         <v>0.18988574898875</v>
       </c>
       <c r="E15" t="n">
-        <v>10.6000074624961</v>
+        <v>10.4895234420534</v>
       </c>
       <c r="F15" t="n">
-        <v>21.3597192738367</v>
+        <v>21.5462517647767</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.62292073304155</v>
+        <v>1.70050439459169</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2.43902170556623</v>
+        <v>2.46288204011034</v>
       </c>
       <c r="C16" t="n">
         <v>0.731120047637031</v>
@@ -884,10 +884,10 @@
         <v>0.440554484730014</v>
       </c>
       <c r="E16" t="n">
-        <v>11.2997721703474</v>
+        <v>10.6822742249433</v>
       </c>
       <c r="F16" t="n">
-        <v>21.3150661704143</v>
+        <v>21.093720200504</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.43902170556623</v>
+        <v>2.46288204011034</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2.52382018049095</v>
+        <v>2.57122028212419</v>
       </c>
       <c r="C17" t="n">
         <v>0.482897148267451</v>
@@ -916,10 +916,10 @@
         <v>0.288536235127918</v>
       </c>
       <c r="E17" t="n">
-        <v>14.5166187509783</v>
+        <v>14.6911576658988</v>
       </c>
       <c r="F17" t="n">
-        <v>35.6869458469313</v>
+        <v>35.9441694586046</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52382018049095</v>
+        <v>2.57122028212419</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4.25684094189626</v>
+        <v>4.32743205941899</v>
       </c>
       <c r="C18" t="n">
-        <v>0.981655983715411</v>
+        <v>1.0256770092516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.489218228380278</v>
+        <v>0.49281724821458</v>
       </c>
       <c r="E18" t="n">
-        <v>13.6222248831502</v>
+        <v>13.6771339236151</v>
       </c>
       <c r="F18" t="n">
-        <v>28.2079069945859</v>
+        <v>28.8802287237437</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.25684094189626</v>
+        <v>2.32743205941899</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,13 +971,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>19.179806796231</v>
+        <v>19.3073622763229</v>
       </c>
       <c r="C19" t="n">
-        <v>1.75802182797102</v>
+        <v>1.79915410255924</v>
       </c>
       <c r="D19" t="n">
-        <v>0.890876647434352</v>
+        <v>0.890409130677</v>
       </c>
       <c r="E19" t="n">
         <v>92.6280768794243</v>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>9.17980679623097</v>
+        <v>9.30736227632294</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,13 +1003,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>106.750522498635</v>
+        <v>107.878250969663</v>
       </c>
       <c r="C20" t="n">
-        <v>4.31595614090595</v>
+        <v>4.27627336423925</v>
       </c>
       <c r="D20" t="n">
-        <v>2.13476502923437</v>
+        <v>2.10519286867444</v>
       </c>
       <c r="E20" t="n">
         <v>724.209356355475</v>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>89.7505224986348</v>
+        <v>90.8782509696626</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,13 +1035,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>240.552039084227</v>
+        <v>240.321684070477</v>
       </c>
       <c r="C21" t="n">
-        <v>11.1450217297426</v>
+        <v>10.8706433739138</v>
       </c>
       <c r="D21" t="n">
-        <v>4.58824055514309</v>
+        <v>4.47040584545298</v>
       </c>
       <c r="E21" t="n">
         <v>1889.68824444474</v>
@@ -1056,7 +1056,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>168.552039084227</v>
+        <v>168.321684070477</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>145.09923233357</v>
+        <v>143.283120550459</v>
       </c>
       <c r="C22" t="n">
-        <v>12.0533161045344</v>
+        <v>11.8340802230896</v>
       </c>
       <c r="D22" t="n">
-        <v>5.03637241486694</v>
+        <v>4.90405950658008</v>
       </c>
       <c r="E22" t="n">
-        <v>969.818121777602</v>
+        <v>981.005736516422</v>
       </c>
       <c r="F22" t="n">
-        <v>3083.12274191528</v>
+        <v>3341.49426729651</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>82.0992323335703</v>
+        <v>80.2831205504591</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>49.2217327009639</v>
+        <v>47.5183156700205</v>
       </c>
       <c r="C23" t="n">
-        <v>7.14278759551399</v>
+        <v>6.99093389603094</v>
       </c>
       <c r="D23" t="n">
-        <v>2.24365412714104</v>
+        <v>2.11070058155268</v>
       </c>
       <c r="E23" t="n">
-        <v>642.333375213425</v>
+        <v>644.170350125728</v>
       </c>
       <c r="F23" t="n">
-        <v>2534.94540742405</v>
+        <v>2415.60222045247</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>10.2217327009639</v>
+        <v>8.51831567002051</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>13.402162519522</v>
+        <v>13.2588187322911</v>
       </c>
       <c r="C24" t="n">
-        <v>1.47237125653532</v>
+        <v>1.48444926025171</v>
       </c>
       <c r="D24" t="n">
-        <v>0.503537323851039</v>
+        <v>0.50065891057571</v>
       </c>
       <c r="E24" t="n">
-        <v>97.7290696513368</v>
+        <v>101.641783645994</v>
       </c>
       <c r="F24" t="n">
-        <v>537.68325547293</v>
+        <v>573.974041560065</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.597837480477974</v>
+        <v>-0.741181267708876</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0909540809456</v>
+        <v>12.1800619026977</v>
       </c>
       <c r="C25" t="n">
-        <v>1.72223693293004</v>
+        <v>1.78233666568696</v>
       </c>
       <c r="D25" t="n">
-        <v>0.930168218638825</v>
+        <v>0.954139038702333</v>
       </c>
       <c r="E25" t="n">
         <v>49.6664732142419</v>
       </c>
       <c r="F25" t="n">
-        <v>165.655916322209</v>
+        <v>172.582270609358</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>8.0909540809456</v>
+        <v>8.18006190269771</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>5.6997444904522</v>
+        <v>5.74084085250191</v>
       </c>
       <c r="C26" t="n">
-        <v>0.913003237728339</v>
+        <v>0.942275908612807</v>
       </c>
       <c r="D26" t="n">
-        <v>0.393746166523519</v>
+        <v>0.408946871956239</v>
       </c>
       <c r="E26" t="n">
         <v>23.7328525940006</v>
       </c>
       <c r="F26" t="n">
-        <v>67.5647409664475</v>
+        <v>81.933312454281</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.3002555095478</v>
+        <v>-3.25915914749809</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1.65009420745574</v>
+        <v>1.7329381633125</v>
       </c>
       <c r="C27" t="n">
         <v>0.313189897416424</v>
@@ -1236,10 +1236,10 @@
         <v>0.16921703356528</v>
       </c>
       <c r="E27" t="n">
-        <v>13.1313423908524</v>
+        <v>13.2851476460021</v>
       </c>
       <c r="F27" t="n">
-        <v>29.950827594058</v>
+        <v>31.3866541433433</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.650094207455735</v>
+        <v>0.732938163312498</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2.39360623182382</v>
+        <v>2.44687304446995</v>
       </c>
       <c r="C28" t="n">
         <v>0.638145684924395</v>
@@ -1268,10 +1268,10 @@
         <v>0.385724239402212</v>
       </c>
       <c r="E28" t="n">
-        <v>11.7176337247246</v>
+        <v>11.7893029578396</v>
       </c>
       <c r="F28" t="n">
-        <v>22.4464979989067</v>
+        <v>23.3539064831524</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.393606231823819</v>
+        <v>0.446873044469947</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2.39792134067767</v>
+        <v>2.45886492128332</v>
       </c>
       <c r="C29" t="n">
         <v>0.419940569894246</v>
@@ -1300,10 +1300,10 @@
         <v>0.247603854009502</v>
       </c>
       <c r="E29" t="n">
-        <v>17.0347056553286</v>
+        <v>17.5857680944272</v>
       </c>
       <c r="F29" t="n">
-        <v>36.5104241355259</v>
+        <v>38.3799753197744</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.39792134067767</v>
+        <v>2.45886492128332</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4.0778551198391</v>
+        <v>4.15364456296338</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0729176389548</v>
+        <v>1.11172738665813</v>
       </c>
       <c r="D30" t="n">
-        <v>0.501455385180562</v>
+        <v>0.519495775985453</v>
       </c>
       <c r="E30" t="n">
-        <v>13.5115994945804</v>
+        <v>14.007803981349</v>
       </c>
       <c r="F30" t="n">
-        <v>34.0758130591032</v>
+        <v>38.1558092179143</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.0778551198391</v>
+        <v>4.15364456296338</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,13 +1355,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>17.5368831800512</v>
+        <v>17.7305841680022</v>
       </c>
       <c r="C31" t="n">
-        <v>1.42454852203846</v>
+        <v>1.44214403538917</v>
       </c>
       <c r="D31" t="n">
-        <v>0.688705847681886</v>
+        <v>0.70556354262532</v>
       </c>
       <c r="E31" t="n">
         <v>88.306501050473</v>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>10.5368831800512</v>
+        <v>10.7305841680022</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,13 +1387,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>94.3481199203058</v>
+        <v>95.1801356600107</v>
       </c>
       <c r="C32" t="n">
-        <v>2.39942201414265</v>
+        <v>2.45289376297276</v>
       </c>
       <c r="D32" t="n">
-        <v>1.26198826247827</v>
+        <v>1.25820370165965</v>
       </c>
       <c r="E32" t="n">
         <v>681.768118514751</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>81.3481199203058</v>
+        <v>82.1801356600107</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,13 +1419,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>213.412200077051</v>
+        <v>213.954088474444</v>
       </c>
       <c r="C33" t="n">
-        <v>4.75641585458975</v>
+        <v>4.72428541804821</v>
       </c>
       <c r="D33" t="n">
-        <v>1.98792327830748</v>
+        <v>1.93508405131803</v>
       </c>
       <c r="E33" t="n">
         <v>1766.54616836627</v>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>156.412200077051</v>
+        <v>156.954088474444</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>131.446075449515</v>
+        <v>129.674793559262</v>
       </c>
       <c r="C34" t="n">
-        <v>6.71441155522144</v>
+        <v>6.46409056423479</v>
       </c>
       <c r="D34" t="n">
-        <v>2.48742097344252</v>
+        <v>2.3273801105923</v>
       </c>
       <c r="E34" t="n">
-        <v>979.130527688672</v>
+        <v>1084.29190614508</v>
       </c>
       <c r="F34" t="n">
-        <v>4229.35570659628</v>
+        <v>4668.51771802788</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>78.4460754495154</v>
+        <v>76.6747935592616</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>46.6536933379487</v>
+        <v>44.1895205741822</v>
       </c>
       <c r="C35" t="n">
-        <v>4.36788628278593</v>
+        <v>4.26799904504562</v>
       </c>
       <c r="D35" t="n">
-        <v>1.49914787964616</v>
+        <v>1.56671280425708</v>
       </c>
       <c r="E35" t="n">
-        <v>809.775280323818</v>
+        <v>821.701763725472</v>
       </c>
       <c r="F35" t="n">
-        <v>4777.6702048788</v>
+        <v>5160.6472963893</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>19.6536933379487</v>
+        <v>17.1895205741822</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>12.3225060397798</v>
+        <v>12.1599372841704</v>
       </c>
       <c r="C36" t="n">
-        <v>1.24593167612044</v>
+        <v>1.27237417225759</v>
       </c>
       <c r="D36" t="n">
-        <v>0.372217547701713</v>
+        <v>0.364188473510942</v>
       </c>
       <c r="E36" t="n">
-        <v>268.039687132664</v>
+        <v>297.45159745632</v>
       </c>
       <c r="F36" t="n">
-        <v>1101.99130829413</v>
+        <v>1112.77659050935</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>11.3225060397798</v>
+        <v>11.1599372841704</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>11.1050299655315</v>
+        <v>11.1242292588161</v>
       </c>
       <c r="C37" t="n">
-        <v>1.27423473434756</v>
+        <v>1.28015175054352</v>
       </c>
       <c r="D37" t="n">
-        <v>0.549206696041159</v>
+        <v>0.584771951014659</v>
       </c>
       <c r="E37" t="n">
-        <v>59.9241721993283</v>
+        <v>66.4277193777843</v>
       </c>
       <c r="F37" t="n">
-        <v>432.165417577036</v>
+        <v>404.289913511121</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>8.10502996553152</v>
+        <v>8.12422925881605</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>5.45846069159718</v>
+        <v>5.52538893360663</v>
       </c>
       <c r="C38" t="n">
-        <v>0.891907986448042</v>
+        <v>0.953780896786742</v>
       </c>
       <c r="D38" t="n">
-        <v>0.416515218708507</v>
+        <v>0.481719220190893</v>
       </c>
       <c r="E38" t="n">
-        <v>23.8729886508541</v>
+        <v>26.7082245159605</v>
       </c>
       <c r="F38" t="n">
-        <v>111.696434443747</v>
+        <v>137.670110105824</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>1.45846069159718</v>
+        <v>1.52538893360663</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1.64001137138711</v>
+        <v>1.71932139481406</v>
       </c>
       <c r="C39" t="n">
         <v>0.286870901848305</v>
@@ -1620,10 +1620,10 @@
         <v>0.150355146974437</v>
       </c>
       <c r="E39" t="n">
-        <v>15.0937948714504</v>
+        <v>15.5097611921752</v>
       </c>
       <c r="F39" t="n">
-        <v>33.8474482546117</v>
+        <v>39.8683849904379</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.640011371387111</v>
+        <v>0.719321394814062</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>2.33059486625546</v>
+        <v>2.39538242792128</v>
       </c>
       <c r="C40" t="n">
         <v>0.552956021993513</v>
@@ -1652,10 +1652,10 @@
         <v>0.330024661116695</v>
       </c>
       <c r="E40" t="n">
-        <v>12.8461928629345</v>
+        <v>13.1890722822479</v>
       </c>
       <c r="F40" t="n">
-        <v>26.0098536209067</v>
+        <v>27.6988586476406</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.66940513374454</v>
+        <v>-0.604617572078722</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2.3089810558588</v>
+        <v>2.37621342742611</v>
       </c>
       <c r="C41" t="n">
         <v>0.361895627584684</v>
@@ -1684,10 +1684,10 @@
         <v>0.208902342815684</v>
       </c>
       <c r="E41" t="n">
-        <v>15.5195118945883</v>
+        <v>16.5051434597949</v>
       </c>
       <c r="F41" t="n">
-        <v>51.2074960803895</v>
+        <v>56.7768407367513</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1.3089810558588</v>
+        <v>1.37621342742611</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>3.91001799842678</v>
+        <v>3.98613145113743</v>
       </c>
       <c r="C42" t="n">
-        <v>1.09091211148444</v>
+        <v>1.1070500103349</v>
       </c>
       <c r="D42" t="n">
-        <v>0.528964959742493</v>
+        <v>0.541927961568761</v>
       </c>
       <c r="E42" t="n">
-        <v>13.6768363037465</v>
+        <v>15.0517366293281</v>
       </c>
       <c r="F42" t="n">
-        <v>29.2622644187955</v>
+        <v>32.4006054176893</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.91001799842678</v>
+        <v>3.98613145113743</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,13 +1739,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>16.2719020176282</v>
+        <v>16.3796020055178</v>
       </c>
       <c r="C43" t="n">
-        <v>1.36819185675874</v>
+        <v>1.3889206674761</v>
       </c>
       <c r="D43" t="n">
-        <v>0.656037750783199</v>
+        <v>0.676485546057017</v>
       </c>
       <c r="E43" t="n">
         <v>84.1320743576588</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>13.2719020176282</v>
+        <v>13.3796020055178</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,13 +1771,13 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>85.8339067379157</v>
+        <v>86.2409458167449</v>
       </c>
       <c r="C44" t="n">
-        <v>1.80486250515511</v>
+        <v>1.81202740657455</v>
       </c>
       <c r="D44" t="n">
-        <v>0.891986956058679</v>
+        <v>0.879477884525557</v>
       </c>
       <c r="E44" t="n">
         <v>642.299905529382</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>52.8339067379157</v>
+        <v>53.2409458167449</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,13 +1803,13 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>190.803056315349</v>
+        <v>191.972103798058</v>
       </c>
       <c r="C45" t="n">
-        <v>2.89456086123589</v>
+        <v>2.93477224333723</v>
       </c>
       <c r="D45" t="n">
-        <v>1.32896278732901</v>
+        <v>1.31469422001896</v>
       </c>
       <c r="E45" t="n">
         <v>1719.43553183778</v>
@@ -1824,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>110.803056315349</v>
+        <v>111.972103798058</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>118.194740534741</v>
+        <v>116.876008155329</v>
       </c>
       <c r="C46" t="n">
-        <v>3.81738017557257</v>
+        <v>3.68904673874995</v>
       </c>
       <c r="D46" t="n">
-        <v>1.40758869465625</v>
+        <v>1.3760231124291</v>
       </c>
       <c r="E46" t="n">
-        <v>969.651391951747</v>
+        <v>1061.17329511052</v>
       </c>
       <c r="F46" t="n">
-        <v>4008.2417794671</v>
+        <v>4461.96982786221</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>56.194740534741</v>
+        <v>54.876008155329</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>42.9089483472547</v>
+        <v>40.2208495643069</v>
       </c>
       <c r="C47" t="n">
-        <v>3.47438097015093</v>
+        <v>3.30374837038492</v>
       </c>
       <c r="D47" t="n">
-        <v>1.2611293282039</v>
+        <v>1.29027919333591</v>
       </c>
       <c r="E47" t="n">
-        <v>999.590100033081</v>
+        <v>1053.45349807477</v>
       </c>
       <c r="F47" t="n">
-        <v>3526.58492230075</v>
+        <v>3818.43650351315</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>10.9089483472547</v>
+        <v>8.22084956430689</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>11.3941267956448</v>
+        <v>11.2682824482455</v>
       </c>
       <c r="C48" t="n">
-        <v>1.27215907253003</v>
+        <v>1.34822877353143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.423909226153399</v>
+        <v>0.474149971162477</v>
       </c>
       <c r="E48" t="n">
-        <v>384.624038843627</v>
+        <v>410.629249077295</v>
       </c>
       <c r="F48" t="n">
-        <v>1878.84754389759</v>
+        <v>1964.73213857857</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.60587320435519</v>
+        <v>-0.731717551754496</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>10.3951075335447</v>
+        <v>10.3866343766905</v>
       </c>
       <c r="C49" t="n">
-        <v>1.24965742686655</v>
+        <v>1.2615261125239</v>
       </c>
       <c r="D49" t="n">
-        <v>0.467758899440549</v>
+        <v>0.526802574452713</v>
       </c>
       <c r="E49" t="n">
-        <v>138.525814502984</v>
+        <v>148.890168756189</v>
       </c>
       <c r="F49" t="n">
-        <v>885.922915122015</v>
+        <v>958.886497285805</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>6.39510753354473</v>
+        <v>6.38663437669055</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
